--- a/R/data/dictionaries/1_0/1_0_non_repeated.xlsx
+++ b/R/data/dictionaries/1_0/1_0_non_repeated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/1_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDDE4B4-DCBC-D044-A619-B731A82E3DC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9758439D-5F07-DF4F-B003-DEFAF647C37D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/R/data/dictionaries/1_0/1_0_non_repeated.xlsx
+++ b/R/data/dictionaries/1_0/1_0_non_repeated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/1_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9758439D-5F07-DF4F-B003-DEFAF647C37D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D427E4F4-0B90-1E46-AFCD-E9F44F587524}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="463">
   <si>
     <t>name</t>
   </si>
@@ -1404,13 +1404,19 @@
   </si>
   <si>
     <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>recruit_age</t>
+  </si>
+  <si>
+    <t>Age of the child at time of enrolment. In days. Negative if prepartum, positive if postpartum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1436,6 +1442,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1445,7 +1457,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1468,13 +1480,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1485,6 +1508,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1948,10 +1974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG109"/>
+  <dimension ref="A1:BG110"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1959,7 +1985,7 @@
     <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="73" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -3645,6 +3671,20 @@
         <v>424</v>
       </c>
     </row>
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>462</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="2048"/>
@@ -3658,7 +3698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D472"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/R/data/dictionaries/1_0/1_0_non_repeated.xlsx
+++ b/R/data/dictionaries/1_0/1_0_non_repeated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/1_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D427E4F4-0B90-1E46-AFCD-E9F44F587524}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229D6262-6724-B841-9328-7C25149FE05C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="464">
   <si>
     <t>name</t>
   </si>
@@ -1410,6 +1410,9 @@
   </si>
   <si>
     <t>Age of the child at time of enrolment. In days. Negative if prepartum, positive if postpartum</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1500,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1511,6 +1514,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1976,7 +1991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A77" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
@@ -3696,16 +3711,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D472"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A90" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="32" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="16"/>
+    <col min="3" max="3" width="8.83203125" style="1"/>
     <col min="4" max="4" width="54.5" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -3714,7 +3730,7 @@
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -3728,10 +3744,10 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="15">
         <v>101</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -3742,10 +3758,10 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="15">
         <v>102</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -3756,10 +3772,10 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="15">
         <v>103</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -3770,10 +3786,10 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="15">
         <v>104</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -3784,10 +3800,10 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="15">
         <v>105</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -3798,10 +3814,10 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="15">
         <v>106</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -3812,10 +3828,10 @@
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="15">
         <v>107</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -3826,10 +3842,10 @@
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="15">
         <v>108</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -3840,10 +3856,10 @@
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="15">
         <v>109</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -3854,10 +3870,10 @@
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="15">
         <v>110</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -3868,10 +3884,10 @@
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="15">
         <v>111</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -3882,10 +3898,10 @@
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="15">
         <v>112</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -3896,10 +3912,10 @@
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="15">
         <v>113</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -3910,10 +3926,10 @@
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="15">
         <v>114</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -3924,10 +3940,10 @@
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="15">
         <v>115</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -3938,10 +3954,10 @@
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="15">
         <v>116</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -3952,10 +3968,10 @@
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="15">
         <v>117</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -3966,10 +3982,10 @@
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="15">
         <v>118</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -3978,891 +3994,891 @@
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="3">
-        <v>36</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>302</v>
+        <v>5</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="C20" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="3">
-        <v>208</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="B21" s="15">
+        <v>36</v>
+      </c>
+      <c r="C21" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="3">
-        <v>246</v>
-      </c>
-      <c r="C22" s="6">
+      <c r="B22" s="15">
+        <v>208</v>
+      </c>
+      <c r="C22" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="3">
-        <v>250</v>
-      </c>
-      <c r="C23" s="6">
+      <c r="B23" s="15">
+        <v>246</v>
+      </c>
+      <c r="C23" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="3">
-        <v>276</v>
-      </c>
-      <c r="C24" s="6">
+      <c r="B24" s="15">
+        <v>250</v>
+      </c>
+      <c r="C24" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="3">
-        <v>300</v>
-      </c>
-      <c r="C25" s="6">
+      <c r="B25" s="15">
+        <v>276</v>
+      </c>
+      <c r="C25" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="3">
-        <v>380</v>
-      </c>
-      <c r="C26" s="6">
+      <c r="B26" s="15">
+        <v>300</v>
+      </c>
+      <c r="C26" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="3">
-        <v>528</v>
-      </c>
-      <c r="C27" s="6">
+      <c r="B27" s="15">
+        <v>380</v>
+      </c>
+      <c r="C27" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="3">
-        <v>578</v>
-      </c>
-      <c r="C28" s="6">
+      <c r="B28" s="15">
+        <v>528</v>
+      </c>
+      <c r="C28" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="3">
-        <v>724</v>
-      </c>
-      <c r="C29" s="6">
+      <c r="B29" s="15">
+        <v>578</v>
+      </c>
+      <c r="C29" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="3">
-        <v>826</v>
-      </c>
-      <c r="C30" s="6">
+      <c r="B30" s="15">
+        <v>724</v>
+      </c>
+      <c r="C30" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0</v>
-      </c>
-      <c r="C31" s="3">
+        <v>6</v>
+      </c>
+      <c r="B31" s="15">
+        <v>826</v>
+      </c>
+      <c r="C31" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>337</v>
+        <v>6</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="C32" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="15">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="15">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="15">
         <v>2</v>
       </c>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="C35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="3">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="3">
-        <v>2</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>456</v>
-      </c>
-    </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="3">
-        <v>3</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0</v>
+      <c r="A36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="C36" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>458</v>
+        <v>72</v>
+      </c>
+      <c r="B37" s="15">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="3">
+        <v>72</v>
+      </c>
+      <c r="B38" s="15">
         <v>2</v>
       </c>
-      <c r="C38" s="3">
-        <v>0</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>459</v>
+      <c r="C38" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="3">
-        <v>3</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0</v>
-      </c>
-      <c r="D39" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="15">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="3">
-        <v>1</v>
-      </c>
-      <c r="C40" s="3">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="C40" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="3">
-        <v>2</v>
-      </c>
-      <c r="C41" s="3">
-        <v>0</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>456</v>
+        <v>73</v>
+      </c>
+      <c r="B41" s="15">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="15">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="15">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="C44" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="3">
-        <v>3</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0</v>
-      </c>
-      <c r="D42" s="4" t="s">
+      <c r="B45" s="15">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="15">
+        <v>2</v>
+      </c>
+      <c r="C46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="15">
+        <v>3</v>
+      </c>
+      <c r="C47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="3">
-        <v>0</v>
-      </c>
-      <c r="C43" s="3">
-        <v>0</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="3">
-        <v>1</v>
-      </c>
-      <c r="C44" s="3">
-        <v>0</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="3">
-        <v>0</v>
-      </c>
-      <c r="C45" s="3">
-        <v>0</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="3">
-        <v>1</v>
-      </c>
-      <c r="C46" s="3">
-        <v>0</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" s="3">
-        <v>0</v>
-      </c>
-      <c r="C47" s="3">
-        <v>0</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="3">
-        <v>1</v>
-      </c>
-      <c r="C48" s="3">
-        <v>0</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>323</v>
+      <c r="A48" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="C48" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B49" s="3">
-        <v>0</v>
-      </c>
-      <c r="C49" s="3">
+        <v>75</v>
+      </c>
+      <c r="B49" s="15">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B50" s="3">
-        <v>1</v>
-      </c>
-      <c r="C50" s="3">
+        <v>75</v>
+      </c>
+      <c r="B50" s="15">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>323</v>
+        <v>460</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" s="3">
-        <v>2</v>
-      </c>
-      <c r="C51" s="3">
-        <v>0</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>324</v>
+        <v>75</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="C51" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" s="3">
-        <v>3</v>
-      </c>
-      <c r="C52" s="3">
+        <v>78</v>
+      </c>
+      <c r="B52" s="15">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="3">
-        <v>0</v>
-      </c>
-      <c r="C53" s="3">
+        <v>78</v>
+      </c>
+      <c r="B53" s="15">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" s="3">
-        <v>1</v>
-      </c>
-      <c r="C54" s="3">
-        <v>0</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>323</v>
+        <v>78</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="C54" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B55" s="3">
-        <v>1</v>
-      </c>
-      <c r="C55" s="3">
+        <v>81</v>
+      </c>
+      <c r="B55" s="15">
+        <v>0</v>
+      </c>
+      <c r="C55" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" s="3">
-        <v>2</v>
-      </c>
-      <c r="C56" s="3">
+        <v>81</v>
+      </c>
+      <c r="B56" s="15">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B57" s="3">
-        <v>3</v>
-      </c>
-      <c r="C57" s="3">
-        <v>0</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>328</v>
+        <v>81</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="C57" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B58" s="3">
-        <v>4</v>
+        <v>84</v>
+      </c>
+      <c r="B58" s="15">
+        <v>0</v>
       </c>
       <c r="C58" s="3">
         <v>0</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B59" s="3">
-        <v>5</v>
+        <v>84</v>
+      </c>
+      <c r="B59" s="15">
+        <v>1</v>
       </c>
       <c r="C59" s="3">
         <v>0</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B60" s="3">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="B60" s="15">
+        <v>2</v>
       </c>
       <c r="C60" s="3">
         <v>0</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B61" s="3">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="B61" s="15">
+        <v>3</v>
       </c>
       <c r="C61" s="3">
         <v>0</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" s="3">
+        <v>87</v>
+      </c>
+      <c r="B62" s="15">
         <v>0</v>
       </c>
       <c r="C62" s="3">
         <v>0</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B63" s="3">
+        <v>87</v>
+      </c>
+      <c r="B63" s="15">
         <v>1</v>
       </c>
       <c r="C63" s="3">
         <v>0</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B64" s="3">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="B64" s="15">
+        <v>1</v>
       </c>
       <c r="C64" s="3">
         <v>0</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B65" s="3">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="B65" s="15">
+        <v>2</v>
       </c>
       <c r="C65" s="3">
         <v>0</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B66" s="3">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="B66" s="15">
+        <v>3</v>
       </c>
       <c r="C66" s="3">
         <v>0</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B67" s="3">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="B67" s="15">
+        <v>4</v>
       </c>
       <c r="C67" s="3">
         <v>0</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B68" s="3">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="B68" s="15">
+        <v>5</v>
       </c>
       <c r="C68" s="3">
         <v>0</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B69" s="3">
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="B69" s="15">
+        <v>0</v>
       </c>
       <c r="C69" s="3">
         <v>0</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B70" s="3">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="B70" s="15">
+        <v>1</v>
       </c>
       <c r="C70" s="3">
         <v>0</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B71" s="3">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="B71" s="15">
+        <v>0</v>
       </c>
       <c r="C71" s="3">
         <v>0</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B72" s="3">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B72" s="15">
+        <v>1</v>
       </c>
       <c r="C72" s="3">
         <v>0</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B73" s="3">
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="B73" s="15">
+        <v>0</v>
       </c>
       <c r="C73" s="3">
         <v>0</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B74" s="3">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="B74" s="15">
+        <v>1</v>
       </c>
       <c r="C74" s="3">
         <v>0</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B75" s="3">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="B75" s="15">
+        <v>0</v>
       </c>
       <c r="C75" s="3">
         <v>0</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B76" s="3">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="B76" s="15">
+        <v>1</v>
       </c>
       <c r="C76" s="3">
         <v>0</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B77" s="3">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="B77" s="15">
+        <v>0</v>
       </c>
       <c r="C77" s="3">
         <v>0</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B78" s="3">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="B78" s="15">
+        <v>1</v>
       </c>
       <c r="C78" s="3">
         <v>0</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B79" s="3">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="B79" s="15">
+        <v>0</v>
       </c>
       <c r="C79" s="3">
         <v>0</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B80" s="3">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="B80" s="15">
+        <v>1</v>
       </c>
       <c r="C80" s="3">
         <v>0</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>29</v>
+      <c r="D80" s="6" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B81" s="3">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="B81" s="15">
+        <v>0</v>
       </c>
       <c r="C81" s="3">
         <v>0</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>30</v>
+      <c r="D81" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B82" s="3">
-        <v>2</v>
+        <v>95</v>
+      </c>
+      <c r="B82" s="15">
+        <v>1</v>
       </c>
       <c r="C82" s="3">
         <v>0</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>31</v>
+      <c r="D82" s="6" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" s="3">
+        <v>96</v>
+      </c>
+      <c r="B83" s="15">
         <v>0</v>
       </c>
       <c r="C83" s="3">
@@ -4874,9 +4890,9 @@
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" s="3">
+        <v>96</v>
+      </c>
+      <c r="B84" s="15">
         <v>1</v>
       </c>
       <c r="C84" s="3">
@@ -4888,9 +4904,9 @@
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B85" s="3">
+        <v>97</v>
+      </c>
+      <c r="B85" s="15">
         <v>0</v>
       </c>
       <c r="C85" s="3">
@@ -4902,9 +4918,9 @@
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B86" s="3">
+        <v>97</v>
+      </c>
+      <c r="B86" s="15">
         <v>1</v>
       </c>
       <c r="C86" s="3">
@@ -4916,9 +4932,9 @@
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B87" s="3">
+        <v>65</v>
+      </c>
+      <c r="B87" s="15">
         <v>0</v>
       </c>
       <c r="C87" s="3">
@@ -4930,9 +4946,9 @@
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" s="3">
+        <v>65</v>
+      </c>
+      <c r="B88" s="15">
         <v>1</v>
       </c>
       <c r="C88" s="3">
@@ -4943,80 +4959,80 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B89" s="3">
+      <c r="A89" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B89" s="15">
         <v>0</v>
       </c>
       <c r="C89" s="3">
         <v>0</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>331</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B90" s="3">
+      <c r="A90" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B90" s="15">
         <v>1</v>
       </c>
       <c r="C90" s="3">
         <v>0</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>332</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B91" s="3">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="B91" s="15">
+        <v>2</v>
       </c>
       <c r="C91" s="3">
         <v>0</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B92" s="3">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B92" s="15">
+        <v>0</v>
       </c>
       <c r="C92" s="3">
         <v>0</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>30</v>
+      <c r="D92" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B93" s="3">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="B93" s="15">
+        <v>1</v>
       </c>
       <c r="C93" s="3">
         <v>0</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>31</v>
+      <c r="D93" s="6" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B94" s="3">
+        <v>14</v>
+      </c>
+      <c r="B94" s="15">
         <v>0</v>
       </c>
       <c r="C94" s="3">
@@ -5028,9 +5044,9 @@
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" s="3">
+        <v>14</v>
+      </c>
+      <c r="B95" s="15">
         <v>1</v>
       </c>
       <c r="C95" s="3">
@@ -5042,429 +5058,429 @@
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96" s="3">
+        <v>15</v>
+      </c>
+      <c r="B96" s="15">
         <v>0</v>
       </c>
       <c r="C96" s="3">
         <v>0</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97" s="3">
+        <v>15</v>
+      </c>
+      <c r="B97" s="15">
         <v>1</v>
       </c>
       <c r="C97" s="3">
         <v>0</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98" s="3">
-        <v>2</v>
+      <c r="A98" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="15">
+        <v>0</v>
       </c>
       <c r="C98" s="3">
         <v>0</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>381</v>
+      <c r="D98" s="4" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" s="3">
-        <v>3</v>
+      <c r="A99" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" s="15">
+        <v>1</v>
       </c>
       <c r="C99" s="3">
         <v>0</v>
       </c>
-      <c r="D99" s="6" t="s">
-        <v>382</v>
+      <c r="D99" s="4" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100" s="3">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="B100" s="15">
+        <v>0</v>
       </c>
       <c r="C100" s="3">
         <v>0</v>
       </c>
-      <c r="D100" s="6" t="s">
-        <v>383</v>
+      <c r="D100" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B101" s="3">
-        <v>0</v>
+      <c r="A101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" s="15">
+        <v>1</v>
       </c>
       <c r="C101" s="3">
         <v>0</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>331</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B102" s="3">
-        <v>1</v>
+      <c r="A102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" s="15">
+        <v>2</v>
       </c>
       <c r="C102" s="3">
         <v>0</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>332</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B103" s="3">
+        <v>98</v>
+      </c>
+      <c r="B103" s="15">
         <v>0</v>
       </c>
       <c r="C103" s="3">
         <v>0</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>29</v>
+      <c r="D103" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B104" s="3">
+        <v>98</v>
+      </c>
+      <c r="B104" s="15">
         <v>1</v>
       </c>
       <c r="C104" s="3">
         <v>0</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>340</v>
+      <c r="D104" s="6" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B105" s="3">
-        <v>2</v>
+        <v>99</v>
+      </c>
+      <c r="B105" s="15">
+        <v>0</v>
       </c>
       <c r="C105" s="3">
         <v>0</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>341</v>
+      <c r="D105" s="6" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B106" s="3">
-        <v>3</v>
+        <v>99</v>
+      </c>
+      <c r="B106" s="15">
+        <v>1</v>
       </c>
       <c r="C106" s="3">
         <v>0</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>342</v>
+      <c r="D106" s="6" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B107" s="3">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="B107" s="15">
+        <v>2</v>
       </c>
       <c r="C107" s="3">
         <v>0</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>331</v>
+      <c r="D107" s="6" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B108" s="3">
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="B108" s="15">
+        <v>3</v>
       </c>
       <c r="C108" s="3">
         <v>0</v>
       </c>
-      <c r="D108" s="4" t="s">
-        <v>332</v>
+      <c r="D108" s="6" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B109" s="3">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="B109" s="15">
+        <v>4</v>
       </c>
       <c r="C109" s="3">
         <v>0</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B110" s="15">
+        <v>0</v>
+      </c>
+      <c r="C110" s="3">
+        <v>0</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B110" s="3">
-        <v>1</v>
-      </c>
-      <c r="C110" s="3">
-        <v>0</v>
-      </c>
-      <c r="D110" s="4" t="s">
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B111" s="15">
+        <v>1</v>
+      </c>
+      <c r="C111" s="3">
+        <v>0</v>
+      </c>
+      <c r="D111" s="4" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B111" s="3">
-        <v>0</v>
-      </c>
-      <c r="C111" s="3">
-        <v>0</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B112" s="3">
-        <v>1</v>
+        <v>339</v>
+      </c>
+      <c r="B112" s="15">
+        <v>0</v>
       </c>
       <c r="C112" s="3">
         <v>0</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>332</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B113" s="3">
-        <v>0</v>
+        <v>339</v>
+      </c>
+      <c r="B113" s="15">
+        <v>1</v>
       </c>
       <c r="C113" s="3">
         <v>0</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B114" s="3">
-        <v>1</v>
+        <v>339</v>
+      </c>
+      <c r="B114" s="15">
+        <v>2</v>
       </c>
       <c r="C114" s="3">
         <v>0</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B115" s="3">
-        <v>0</v>
+        <v>339</v>
+      </c>
+      <c r="B115" s="15">
+        <v>3</v>
       </c>
       <c r="C115" s="3">
         <v>0</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B116" s="3">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="B116" s="15">
+        <v>0</v>
       </c>
       <c r="C116" s="3">
         <v>0</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B117" s="3">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="B117" s="15">
+        <v>1</v>
       </c>
       <c r="C117" s="3">
         <v>0</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B118" s="3">
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="B118" s="15">
+        <v>0</v>
       </c>
       <c r="C118" s="3">
         <v>0</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B119" s="3">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="B119" s="15">
+        <v>1</v>
       </c>
       <c r="C119" s="3">
         <v>0</v>
       </c>
-      <c r="D119" s="6">
-        <v>0</v>
+      <c r="D119" s="4" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B120" s="3">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="B120" s="15">
+        <v>0</v>
       </c>
       <c r="C120" s="3">
         <v>0</v>
       </c>
-      <c r="D120" s="6">
-        <v>1</v>
+      <c r="D120" s="4" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B121" s="3">
-        <v>2</v>
+        <v>104</v>
+      </c>
+      <c r="B121" s="15">
+        <v>1</v>
       </c>
       <c r="C121" s="3">
         <v>0</v>
       </c>
-      <c r="D121" s="6">
-        <v>2</v>
+      <c r="D121" s="4" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B122" s="3">
-        <v>3</v>
+        <v>105</v>
+      </c>
+      <c r="B122" s="15">
+        <v>0</v>
       </c>
       <c r="C122" s="3">
         <v>0</v>
       </c>
-      <c r="D122" s="6">
-        <v>3</v>
+      <c r="D122" s="4" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B123" s="3">
-        <v>4</v>
+        <v>105</v>
+      </c>
+      <c r="B123" s="15">
+        <v>1</v>
       </c>
       <c r="C123" s="3">
         <v>0</v>
       </c>
-      <c r="D123" s="8" t="s">
-        <v>343</v>
+      <c r="D123" s="4" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B124" s="3">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="B124" s="15">
+        <v>0</v>
       </c>
       <c r="C124" s="3">
         <v>0</v>
       </c>
-      <c r="D124" s="6" t="s">
-        <v>345</v>
+      <c r="D124" s="4" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B125" s="3">
-        <v>2</v>
+        <v>106</v>
+      </c>
+      <c r="B125" s="15">
+        <v>1</v>
       </c>
       <c r="C125" s="3">
         <v>0</v>
       </c>
-      <c r="D125" s="6" t="s">
-        <v>344</v>
+      <c r="D125" s="4" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B126" s="3">
+        <v>107</v>
+      </c>
+      <c r="B126" s="15">
         <v>0</v>
       </c>
       <c r="C126" s="3">
@@ -5476,9 +5492,9 @@
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B127" s="3">
+        <v>107</v>
+      </c>
+      <c r="B127" s="15">
         <v>1</v>
       </c>
       <c r="C127" s="3">
@@ -5490,1017 +5506,1017 @@
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B128" s="3">
+        <v>114</v>
+      </c>
+      <c r="B128" s="15">
         <v>0</v>
       </c>
       <c r="C128" s="3">
         <v>0</v>
       </c>
-      <c r="D128" s="4" t="s">
-        <v>331</v>
+      <c r="D128" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B129" s="3">
+        <v>114</v>
+      </c>
+      <c r="B129" s="15">
         <v>1</v>
       </c>
       <c r="C129" s="3">
         <v>0</v>
       </c>
-      <c r="D129" s="4" t="s">
-        <v>332</v>
+      <c r="D129" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B130" s="3">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="B130" s="15">
+        <v>2</v>
       </c>
       <c r="C130" s="3">
         <v>0</v>
       </c>
-      <c r="D130" s="4" t="s">
-        <v>32</v>
+      <c r="D130" s="13">
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B131" s="3">
-        <v>2</v>
+        <v>114</v>
+      </c>
+      <c r="B131" s="15">
+        <v>3</v>
       </c>
       <c r="C131" s="3">
         <v>0</v>
       </c>
-      <c r="D131" s="4" t="s">
-        <v>33</v>
+      <c r="D131" s="13">
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B132" s="3">
-        <v>3</v>
+        <v>114</v>
+      </c>
+      <c r="B132" s="15">
+        <v>4</v>
       </c>
       <c r="C132" s="3">
         <v>0</v>
       </c>
-      <c r="D132" s="4" t="s">
-        <v>34</v>
+      <c r="D132" s="8" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B133" s="3">
-        <v>4</v>
+        <v>115</v>
+      </c>
+      <c r="B133" s="15">
+        <v>1</v>
       </c>
       <c r="C133" s="3">
         <v>0</v>
       </c>
-      <c r="D133" s="4" t="s">
-        <v>35</v>
+      <c r="D133" s="6" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B134" s="3">
-        <v>5</v>
+        <v>115</v>
+      </c>
+      <c r="B134" s="15">
+        <v>2</v>
       </c>
       <c r="C134" s="3">
         <v>0</v>
       </c>
-      <c r="D134" s="4" t="s">
-        <v>36</v>
+      <c r="D134" s="6" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B135" s="3">
-        <v>6</v>
+        <v>116</v>
+      </c>
+      <c r="B135" s="15">
+        <v>0</v>
       </c>
       <c r="C135" s="3">
         <v>0</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>37</v>
+        <v>331</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B136" s="3">
+        <v>116</v>
+      </c>
+      <c r="B136" s="15">
         <v>1</v>
       </c>
       <c r="C136" s="3">
         <v>0</v>
       </c>
-      <c r="D136" s="6" t="s">
-        <v>350</v>
+      <c r="D136" s="4" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B137" s="3">
-        <v>2</v>
+        <v>117</v>
+      </c>
+      <c r="B137" s="15">
+        <v>0</v>
       </c>
       <c r="C137" s="3">
         <v>0</v>
       </c>
-      <c r="D137" s="6" t="s">
-        <v>346</v>
+      <c r="D137" s="4" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B138" s="3">
-        <v>3</v>
+        <v>117</v>
+      </c>
+      <c r="B138" s="15">
+        <v>1</v>
       </c>
       <c r="C138" s="3">
         <v>0</v>
       </c>
-      <c r="D138" s="6" t="s">
-        <v>347</v>
+      <c r="D138" s="4" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B139" s="3">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="B139" s="15">
+        <v>1</v>
       </c>
       <c r="C139" s="3">
         <v>0</v>
       </c>
-      <c r="D139" s="6" t="s">
-        <v>348</v>
+      <c r="D139" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B140" s="3">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="B140" s="15">
+        <v>2</v>
       </c>
       <c r="C140" s="3">
         <v>0</v>
       </c>
-      <c r="D140" s="6" t="s">
-        <v>349</v>
+      <c r="D140" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B141" s="3">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="B141" s="15">
+        <v>3</v>
       </c>
       <c r="C141" s="3">
         <v>0</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>331</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B142" s="3">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B142" s="15">
+        <v>4</v>
       </c>
       <c r="C142" s="3">
         <v>0</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>332</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B143" s="3">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="B143" s="15">
+        <v>5</v>
       </c>
       <c r="C143" s="3">
         <v>0</v>
       </c>
-      <c r="D143" s="6" t="s">
-        <v>316</v>
+      <c r="D143" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B144" s="3">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B144" s="15">
+        <v>6</v>
       </c>
       <c r="C144" s="3">
         <v>0</v>
       </c>
-      <c r="D144" s="6" t="s">
-        <v>337</v>
+      <c r="D144" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B145" s="15">
+        <v>1</v>
+      </c>
+      <c r="C145" s="3">
+        <v>0</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B146" s="15">
+        <v>2</v>
+      </c>
+      <c r="C146" s="3">
+        <v>0</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B147" s="15">
+        <v>3</v>
+      </c>
+      <c r="C147" s="3">
+        <v>0</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B148" s="15">
+        <v>4</v>
+      </c>
+      <c r="C148" s="3">
+        <v>0</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B149" s="15">
+        <v>5</v>
+      </c>
+      <c r="C149" s="3">
+        <v>0</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B150" s="15">
+        <v>0</v>
+      </c>
+      <c r="C150" s="3">
+        <v>0</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B151" s="15">
+        <v>1</v>
+      </c>
+      <c r="C151" s="3">
+        <v>0</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B152" s="15">
+        <v>0</v>
+      </c>
+      <c r="C152" s="3">
+        <v>0</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B153" s="15">
+        <v>1</v>
+      </c>
+      <c r="C153" s="3">
+        <v>0</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B154" s="15">
         <v>2</v>
       </c>
-      <c r="C145" s="3">
-        <v>0</v>
-      </c>
-      <c r="D145" s="6" t="s">
+      <c r="C154" s="3">
+        <v>0</v>
+      </c>
+      <c r="D154" s="6" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="5" t="s">
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B146" s="3">
-        <v>1</v>
-      </c>
-      <c r="C146" s="3">
-        <v>0</v>
-      </c>
-      <c r="D146" s="6" t="s">
+      <c r="B155" s="15">
+        <v>1</v>
+      </c>
+      <c r="C155" s="3">
+        <v>0</v>
+      </c>
+      <c r="D155" s="6" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="5" t="s">
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B156" s="15">
         <v>2</v>
       </c>
-      <c r="C147" s="3">
-        <v>0</v>
-      </c>
-      <c r="D147" s="6" t="s">
+      <c r="C156" s="3">
+        <v>0</v>
+      </c>
+      <c r="D156" s="6" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="5" t="s">
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B148" s="3">
-        <v>3</v>
-      </c>
-      <c r="C148" s="3">
-        <v>0</v>
-      </c>
-      <c r="D148" s="6" t="s">
+      <c r="B157" s="15">
+        <v>3</v>
+      </c>
+      <c r="C157" s="3">
+        <v>0</v>
+      </c>
+      <c r="D157" s="6" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="5" t="s">
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B149" s="3">
-        <v>4</v>
-      </c>
-      <c r="C149" s="3">
-        <v>0</v>
-      </c>
-      <c r="D149" s="6" t="s">
+      <c r="B158" s="15">
+        <v>4</v>
+      </c>
+      <c r="C158" s="3">
+        <v>0</v>
+      </c>
+      <c r="D158" s="6" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="4" t="s">
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B150" s="3">
-        <v>1</v>
-      </c>
-      <c r="C150" s="3">
-        <v>0</v>
-      </c>
-      <c r="D150" s="4" t="s">
+      <c r="B159" s="15">
+        <v>1</v>
+      </c>
+      <c r="C159" s="3">
+        <v>0</v>
+      </c>
+      <c r="D159" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B160" s="15">
         <v>2</v>
       </c>
-      <c r="C151" s="3">
-        <v>0</v>
-      </c>
-      <c r="D151" s="4" t="s">
+      <c r="C160" s="3">
+        <v>0</v>
+      </c>
+      <c r="D160" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="4" t="s">
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B152" s="3">
-        <v>3</v>
-      </c>
-      <c r="C152" s="3">
-        <v>0</v>
-      </c>
-      <c r="D152" s="4" t="s">
+      <c r="B161" s="15">
+        <v>3</v>
+      </c>
+      <c r="C161" s="3">
+        <v>0</v>
+      </c>
+      <c r="D161" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B153" s="3">
-        <v>1</v>
-      </c>
-      <c r="C153" s="3">
-        <v>0</v>
-      </c>
-      <c r="D153" s="6" t="s">
+      <c r="B162" s="15">
+        <v>1</v>
+      </c>
+      <c r="C162" s="3">
+        <v>0</v>
+      </c>
+      <c r="D162" s="6" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="4" t="s">
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B163" s="15">
         <v>2</v>
       </c>
-      <c r="C154" s="3">
-        <v>0</v>
-      </c>
-      <c r="D154" s="6" t="s">
+      <c r="C163" s="3">
+        <v>0</v>
+      </c>
+      <c r="D163" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="4" t="s">
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B155" s="3">
-        <v>3</v>
-      </c>
-      <c r="C155" s="3">
-        <v>0</v>
-      </c>
-      <c r="D155" s="6" t="s">
+      <c r="B164" s="15">
+        <v>3</v>
+      </c>
+      <c r="C164" s="3">
+        <v>0</v>
+      </c>
+      <c r="D164" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="4" t="s">
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B156" s="3">
-        <v>1</v>
-      </c>
-      <c r="C156" s="3">
-        <v>0</v>
-      </c>
-      <c r="D156" s="4" t="s">
+      <c r="B165" s="15">
+        <v>1</v>
+      </c>
+      <c r="C165" s="3">
+        <v>0</v>
+      </c>
+      <c r="D165" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="4" t="s">
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B166" s="15">
         <v>2</v>
       </c>
-      <c r="C157" s="3">
-        <v>0</v>
-      </c>
-      <c r="D157" s="4" t="s">
+      <c r="C166" s="3">
+        <v>0</v>
+      </c>
+      <c r="D166" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B158" s="3">
-        <v>3</v>
-      </c>
-      <c r="C158" s="3">
-        <v>0</v>
-      </c>
-      <c r="D158" s="4" t="s">
+      <c r="B167" s="15">
+        <v>3</v>
+      </c>
+      <c r="C167" s="3">
+        <v>0</v>
+      </c>
+      <c r="D167" s="4" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B159" s="3">
-        <v>1</v>
-      </c>
-      <c r="C159" s="3">
-        <v>0</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B160" s="3">
-        <v>2</v>
-      </c>
-      <c r="C160" s="3">
-        <v>0</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B161" s="3">
-        <v>3</v>
-      </c>
-      <c r="C161" s="3">
-        <v>0</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B162" s="3">
-        <v>4</v>
-      </c>
-      <c r="C162" s="3">
-        <v>0</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B163" s="3">
-        <v>0</v>
-      </c>
-      <c r="C163" s="3">
-        <v>0</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B164" s="3">
-        <v>1</v>
-      </c>
-      <c r="C164" s="3">
-        <v>0</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B165" s="3">
-        <v>1</v>
-      </c>
-      <c r="C165" s="3">
-        <v>0</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B166" s="3">
-        <v>2</v>
-      </c>
-      <c r="C166" s="3">
-        <v>0</v>
-      </c>
-      <c r="D166" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B167" s="3">
-        <v>3</v>
-      </c>
-      <c r="C167" s="3">
-        <v>0</v>
-      </c>
-      <c r="D167" s="6" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B168" s="3">
-        <v>4</v>
+        <v>130</v>
+      </c>
+      <c r="B168" s="15">
+        <v>1</v>
       </c>
       <c r="C168" s="3">
         <v>0</v>
       </c>
       <c r="D168" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B169" s="15">
+        <v>2</v>
+      </c>
+      <c r="C169" s="3">
+        <v>0</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B170" s="15">
+        <v>3</v>
+      </c>
+      <c r="C170" s="3">
+        <v>0</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B171" s="15">
+        <v>4</v>
+      </c>
+      <c r="C171" s="3">
+        <v>0</v>
+      </c>
+      <c r="D171" s="6" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B169" s="3">
-        <v>0</v>
-      </c>
-      <c r="C169" s="3">
-        <v>0</v>
-      </c>
-      <c r="D169" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B170" s="3">
-        <v>1</v>
-      </c>
-      <c r="C170" s="3">
-        <v>0</v>
-      </c>
-      <c r="D170" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B171" s="3">
-        <v>2</v>
-      </c>
-      <c r="C171" s="3">
-        <v>0</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>321</v>
-      </c>
-    </row>
     <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B172" s="3">
-        <v>1</v>
+      <c r="A172" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B172" s="15">
+        <v>0</v>
       </c>
       <c r="C172" s="3">
         <v>0</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B173" s="3">
-        <v>2</v>
+      <c r="A173" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B173" s="15">
+        <v>1</v>
       </c>
       <c r="C173" s="3">
         <v>0</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B174" s="3">
-        <v>3</v>
+        <v>136</v>
+      </c>
+      <c r="B174" s="15">
+        <v>1</v>
       </c>
       <c r="C174" s="3">
         <v>0</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B175" s="3">
-        <v>4</v>
+        <v>136</v>
+      </c>
+      <c r="B175" s="15">
+        <v>2</v>
       </c>
       <c r="C175" s="3">
         <v>0</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B176" s="3">
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="B176" s="15">
+        <v>3</v>
       </c>
       <c r="C176" s="3">
         <v>0</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B177" s="3">
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="B177" s="15">
+        <v>4</v>
       </c>
       <c r="C177" s="3">
         <v>0</v>
       </c>
       <c r="D177" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B178" s="15">
+        <v>0</v>
+      </c>
+      <c r="C178" s="3">
+        <v>0</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B179" s="15">
+        <v>1</v>
+      </c>
+      <c r="C179" s="3">
+        <v>0</v>
+      </c>
+      <c r="D179" s="6" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B178" s="3">
+    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B180" s="15">
         <v>2</v>
       </c>
-      <c r="C178" s="3">
-        <v>0</v>
-      </c>
-      <c r="D178" s="6" t="s">
+      <c r="C180" s="3">
+        <v>0</v>
+      </c>
+      <c r="D180" s="6" t="s">
         <v>321</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B179" s="3">
-        <v>1</v>
-      </c>
-      <c r="C179" s="3">
-        <v>0</v>
-      </c>
-      <c r="D179" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B180" s="3">
-        <v>2</v>
-      </c>
-      <c r="C180" s="3">
-        <v>0</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B181" s="3">
-        <v>3</v>
+        <v>144</v>
+      </c>
+      <c r="B181" s="15">
+        <v>1</v>
       </c>
       <c r="C181" s="3">
         <v>0</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B182" s="3">
-        <v>4</v>
+        <v>144</v>
+      </c>
+      <c r="B182" s="15">
+        <v>2</v>
       </c>
       <c r="C182" s="3">
         <v>0</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B183" s="3">
-        <v>1</v>
+        <v>144</v>
+      </c>
+      <c r="B183" s="15">
+        <v>3</v>
       </c>
       <c r="C183" s="3">
         <v>0</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B184" s="3">
-        <v>2</v>
+        <v>144</v>
+      </c>
+      <c r="B184" s="15">
+        <v>4</v>
       </c>
       <c r="C184" s="3">
         <v>0</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B185" s="3">
-        <v>3</v>
+        <v>146</v>
+      </c>
+      <c r="B185" s="15">
+        <v>0</v>
       </c>
       <c r="C185" s="3">
         <v>0</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B186" s="3">
-        <v>4</v>
+        <v>146</v>
+      </c>
+      <c r="B186" s="15">
+        <v>1</v>
       </c>
       <c r="C186" s="3">
         <v>0</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B187" s="3">
-        <v>0</v>
+        <v>146</v>
+      </c>
+      <c r="B187" s="15">
+        <v>2</v>
       </c>
       <c r="C187" s="3">
         <v>0</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B188" s="3">
+        <v>147</v>
+      </c>
+      <c r="B188" s="15">
         <v>1</v>
       </c>
       <c r="C188" s="3">
         <v>0</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B189" s="3">
-        <v>0</v>
+        <v>147</v>
+      </c>
+      <c r="B189" s="15">
+        <v>2</v>
       </c>
       <c r="C189" s="3">
         <v>0</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B190" s="3">
-        <v>1</v>
+        <v>147</v>
+      </c>
+      <c r="B190" s="15">
+        <v>3</v>
       </c>
       <c r="C190" s="3">
         <v>0</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B191" s="3">
-        <v>0</v>
+        <v>147</v>
+      </c>
+      <c r="B191" s="15">
+        <v>4</v>
       </c>
       <c r="C191" s="3">
         <v>0</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B192" s="3">
+        <v>148</v>
+      </c>
+      <c r="B192" s="15">
         <v>1</v>
       </c>
       <c r="C192" s="3">
         <v>0</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B193" s="3">
-        <v>0</v>
+        <v>148</v>
+      </c>
+      <c r="B193" s="15">
+        <v>2</v>
       </c>
       <c r="C193" s="3">
         <v>0</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B194" s="3">
-        <v>1</v>
+        <v>148</v>
+      </c>
+      <c r="B194" s="15">
+        <v>3</v>
       </c>
       <c r="C194" s="3">
         <v>0</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B195" s="3">
-        <v>2</v>
+        <v>148</v>
+      </c>
+      <c r="B195" s="15">
+        <v>4</v>
       </c>
       <c r="C195" s="3">
         <v>0</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B196" s="3">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="B196" s="15">
+        <v>0</v>
       </c>
       <c r="C196" s="3">
         <v>0</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B197" s="3">
-        <v>2</v>
+        <v>149</v>
+      </c>
+      <c r="B197" s="15">
+        <v>1</v>
       </c>
       <c r="C197" s="3">
         <v>0</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B198" s="3">
-        <v>3</v>
+        <v>150</v>
+      </c>
+      <c r="B198" s="15">
+        <v>0</v>
       </c>
       <c r="C198" s="3">
         <v>0</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B199" s="3">
-        <v>4</v>
+        <v>150</v>
+      </c>
+      <c r="B199" s="15">
+        <v>1</v>
       </c>
       <c r="C199" s="3">
         <v>0</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B200" s="3">
+        <v>160</v>
+      </c>
+      <c r="B200" s="15">
         <v>0</v>
       </c>
       <c r="C200" s="3">
@@ -6512,9 +6528,9 @@
     </row>
     <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B201" s="3">
+        <v>160</v>
+      </c>
+      <c r="B201" s="15">
         <v>1</v>
       </c>
       <c r="C201" s="3">
@@ -6525,276 +6541,276 @@
       </c>
     </row>
     <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B202" s="3">
-        <v>1</v>
+      <c r="A202" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B202" s="15">
+        <v>0</v>
       </c>
       <c r="C202" s="3">
         <v>0</v>
       </c>
-      <c r="D202" s="4" t="s">
-        <v>38</v>
+      <c r="D202" s="6" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B203" s="3">
+      <c r="A203" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B203" s="15">
+        <v>1</v>
+      </c>
+      <c r="C203" s="3">
+        <v>0</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B204" s="15">
         <v>2</v>
       </c>
-      <c r="C203" s="3">
-        <v>0</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B204" s="3">
-        <v>1</v>
-      </c>
       <c r="C204" s="3">
         <v>0</v>
       </c>
-      <c r="D204" s="4" t="s">
-        <v>40</v>
+      <c r="D204" s="6" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B205" s="3">
+      <c r="A205" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B205" s="15">
+        <v>1</v>
+      </c>
+      <c r="C205" s="3">
+        <v>0</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B206" s="15">
         <v>2</v>
       </c>
-      <c r="C205" s="3">
-        <v>0</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B206" s="3">
-        <v>3</v>
-      </c>
       <c r="C206" s="3">
         <v>0</v>
       </c>
-      <c r="D206" s="4" t="s">
-        <v>42</v>
+      <c r="D206" s="6" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B207" s="3">
-        <v>1</v>
+      <c r="A207" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B207" s="15">
+        <v>3</v>
       </c>
       <c r="C207" s="3">
         <v>0</v>
       </c>
-      <c r="D207" s="4" t="s">
-        <v>363</v>
+      <c r="D207" s="6" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B208" s="3">
-        <v>2</v>
+      <c r="A208" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B208" s="15">
+        <v>4</v>
       </c>
       <c r="C208" s="3">
         <v>0</v>
       </c>
-      <c r="D208" s="4" t="s">
-        <v>364</v>
+      <c r="D208" s="6" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B209" s="3">
-        <v>3</v>
+      <c r="A209" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B209" s="15">
+        <v>0</v>
       </c>
       <c r="C209" s="3">
         <v>0</v>
       </c>
-      <c r="D209" s="4" t="s">
-        <v>365</v>
+      <c r="D209" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B210" s="3">
-        <v>0</v>
+      <c r="A210" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B210" s="15">
+        <v>1</v>
       </c>
       <c r="C210" s="3">
         <v>0</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B211" s="3">
+        <v>19</v>
+      </c>
+      <c r="B211" s="15">
         <v>1</v>
       </c>
       <c r="C211" s="3">
         <v>0</v>
       </c>
-      <c r="D211" s="6" t="s">
-        <v>319</v>
+      <c r="D211" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B212" s="3">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="B212" s="15">
+        <v>2</v>
       </c>
       <c r="C212" s="3">
         <v>0</v>
       </c>
-      <c r="D212" s="6" t="s">
-        <v>318</v>
+      <c r="D212" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B213" s="3">
+        <v>20</v>
+      </c>
+      <c r="B213" s="15">
         <v>1</v>
       </c>
       <c r="C213" s="3">
         <v>0</v>
       </c>
-      <c r="D213" s="6" t="s">
-        <v>319</v>
+      <c r="D213" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B214" s="3">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="B214" s="15">
+        <v>2</v>
       </c>
       <c r="C214" s="3">
         <v>0</v>
       </c>
-      <c r="D214" s="6" t="s">
-        <v>318</v>
+      <c r="D214" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B215" s="3">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="B215" s="15">
+        <v>3</v>
       </c>
       <c r="C215" s="3">
         <v>0</v>
       </c>
-      <c r="D215" s="6" t="s">
-        <v>319</v>
+      <c r="D215" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B216" s="3">
+      <c r="A216" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B216" s="15">
         <v>1</v>
       </c>
       <c r="C216" s="3">
         <v>0</v>
       </c>
-      <c r="D216" s="6">
-        <v>1</v>
+      <c r="D216" s="4" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B217" s="3">
+      <c r="A217" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B217" s="15">
         <v>2</v>
       </c>
       <c r="C217" s="3">
         <v>0</v>
       </c>
-      <c r="D217" s="6">
-        <v>2</v>
+      <c r="D217" s="4" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B218" s="3">
+      <c r="A218" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B218" s="15">
         <v>3</v>
       </c>
       <c r="C218" s="3">
         <v>0</v>
       </c>
-      <c r="D218" s="6">
-        <v>3</v>
+      <c r="D218" s="4" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B219" s="3">
-        <v>4</v>
+        <v>182</v>
+      </c>
+      <c r="B219" s="15">
+        <v>0</v>
       </c>
       <c r="C219" s="3">
         <v>0</v>
       </c>
-      <c r="D219" s="6">
-        <v>4</v>
+      <c r="D219" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B220" s="3">
-        <v>5</v>
+        <v>182</v>
+      </c>
+      <c r="B220" s="15">
+        <v>1</v>
       </c>
       <c r="C220" s="3">
         <v>0</v>
       </c>
-      <c r="D220" s="8" t="s">
-        <v>366</v>
+      <c r="D220" s="6" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B221" s="3">
+        <v>183</v>
+      </c>
+      <c r="B221" s="15">
         <v>0</v>
       </c>
       <c r="C221" s="3">
@@ -6806,9 +6822,9 @@
     </row>
     <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B222" s="3">
+        <v>183</v>
+      </c>
+      <c r="B222" s="15">
         <v>1</v>
       </c>
       <c r="C222" s="3">
@@ -6820,3501 +6836,3627 @@
     </row>
     <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B223" s="3">
+        <v>184</v>
+      </c>
+      <c r="B223" s="15">
         <v>0</v>
       </c>
       <c r="C223" s="3">
         <v>0</v>
       </c>
-      <c r="D223" s="4" t="s">
-        <v>43</v>
+      <c r="D223" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B224" s="3">
+        <v>184</v>
+      </c>
+      <c r="B224" s="15">
         <v>1</v>
       </c>
       <c r="C224" s="3">
         <v>0</v>
       </c>
-      <c r="D224" s="4" t="s">
-        <v>44</v>
+      <c r="D224" s="6" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B225" s="3">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="B225" s="15">
+        <v>1</v>
       </c>
       <c r="C225" s="3">
         <v>0</v>
       </c>
-      <c r="D225" s="6" t="s">
-        <v>367</v>
+      <c r="D225" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B226" s="3">
-        <v>1</v>
+        <v>185</v>
+      </c>
+      <c r="B226" s="15">
+        <v>2</v>
       </c>
       <c r="C226" s="3">
         <v>0</v>
       </c>
-      <c r="D226" s="6" t="s">
-        <v>368</v>
+      <c r="D226" s="13">
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B227" s="3">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="B227" s="15">
+        <v>3</v>
       </c>
       <c r="C227" s="3">
         <v>0</v>
       </c>
-      <c r="D227" s="6" t="s">
-        <v>367</v>
+      <c r="D227" s="13">
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B228" s="3">
-        <v>1</v>
+        <v>185</v>
+      </c>
+      <c r="B228" s="15">
+        <v>4</v>
       </c>
       <c r="C228" s="3">
         <v>0</v>
       </c>
-      <c r="D228" s="6" t="s">
-        <v>368</v>
+      <c r="D228" s="13">
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B229" s="3">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="B229" s="15">
+        <v>5</v>
       </c>
       <c r="C229" s="3">
         <v>0</v>
       </c>
-      <c r="D229" s="6" t="s">
-        <v>367</v>
+      <c r="D229" s="8" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B230" s="3">
-        <v>1</v>
+        <v>191</v>
+      </c>
+      <c r="B230" s="15">
+        <v>0</v>
       </c>
       <c r="C230" s="3">
         <v>0</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B231" s="3">
-        <v>0</v>
+        <v>191</v>
+      </c>
+      <c r="B231" s="15">
+        <v>1</v>
       </c>
       <c r="C231" s="3">
         <v>0</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B232" s="3">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="B232" s="15">
+        <v>0</v>
       </c>
       <c r="C232" s="3">
         <v>0</v>
       </c>
-      <c r="D232" s="6" t="s">
-        <v>368</v>
+      <c r="D232" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B233" s="3">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="B233" s="15">
+        <v>1</v>
       </c>
       <c r="C233" s="3">
         <v>0</v>
       </c>
-      <c r="D233" s="6" t="s">
-        <v>369</v>
+      <c r="D233" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B234" s="3">
-        <v>1</v>
+        <v>196</v>
+      </c>
+      <c r="B234" s="15">
+        <v>0</v>
       </c>
       <c r="C234" s="3">
         <v>0</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B235" s="3">
-        <v>0</v>
+        <v>196</v>
+      </c>
+      <c r="B235" s="15">
+        <v>1</v>
       </c>
       <c r="C235" s="3">
         <v>0</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B236" s="3">
-        <v>1</v>
+        <v>197</v>
+      </c>
+      <c r="B236" s="15">
+        <v>0</v>
       </c>
       <c r="C236" s="3">
         <v>0</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B237" s="3">
-        <v>0</v>
+        <v>197</v>
+      </c>
+      <c r="B237" s="15">
+        <v>1</v>
       </c>
       <c r="C237" s="3">
         <v>0</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B238" s="3">
-        <v>1</v>
+        <v>198</v>
+      </c>
+      <c r="B238" s="15">
+        <v>0</v>
       </c>
       <c r="C238" s="3">
         <v>0</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B239" s="3">
-        <v>0</v>
+        <v>198</v>
+      </c>
+      <c r="B239" s="15">
+        <v>1</v>
       </c>
       <c r="C239" s="3">
         <v>0</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B240" s="3">
-        <v>1</v>
+        <v>199</v>
+      </c>
+      <c r="B240" s="15">
+        <v>0</v>
       </c>
       <c r="C240" s="3">
         <v>0</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B241" s="3">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="B241" s="15">
+        <v>1</v>
       </c>
       <c r="C241" s="3">
         <v>0</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B242" s="3">
-        <v>1</v>
+        <v>200</v>
+      </c>
+      <c r="B242" s="15">
+        <v>0</v>
       </c>
       <c r="C242" s="3">
         <v>0</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B243" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="B243" s="15">
+        <v>1</v>
       </c>
       <c r="C243" s="3">
         <v>0</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B244" s="3">
-        <v>1</v>
+        <v>201</v>
+      </c>
+      <c r="B244" s="15">
+        <v>0</v>
       </c>
       <c r="C244" s="3">
         <v>0</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B245" s="3">
-        <v>0</v>
+        <v>201</v>
+      </c>
+      <c r="B245" s="15">
+        <v>1</v>
       </c>
       <c r="C245" s="3">
         <v>0</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B246" s="3">
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="B246" s="15">
+        <v>0</v>
       </c>
       <c r="C246" s="3">
         <v>0</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B247" s="3">
-        <v>0</v>
+        <v>202</v>
+      </c>
+      <c r="B247" s="15">
+        <v>1</v>
       </c>
       <c r="C247" s="3">
         <v>0</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B248" s="3">
-        <v>1</v>
+        <v>203</v>
+      </c>
+      <c r="B248" s="15">
+        <v>0</v>
       </c>
       <c r="C248" s="3">
         <v>0</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B249" s="3">
-        <v>0</v>
+        <v>203</v>
+      </c>
+      <c r="B249" s="15">
+        <v>1</v>
       </c>
       <c r="C249" s="3">
         <v>0</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B250" s="3">
-        <v>1</v>
+        <v>204</v>
+      </c>
+      <c r="B250" s="15">
+        <v>0</v>
       </c>
       <c r="C250" s="3">
         <v>0</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B251" s="3">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="B251" s="15">
+        <v>1</v>
       </c>
       <c r="C251" s="3">
         <v>0</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B252" s="3">
-        <v>1</v>
+        <v>205</v>
+      </c>
+      <c r="B252" s="15">
+        <v>0</v>
       </c>
       <c r="C252" s="3">
         <v>0</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B253" s="3">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="B253" s="15">
+        <v>1</v>
       </c>
       <c r="C253" s="3">
         <v>0</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B254" s="3">
-        <v>1</v>
+        <v>206</v>
+      </c>
+      <c r="B254" s="15">
+        <v>0</v>
       </c>
       <c r="C254" s="3">
         <v>0</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B255" s="3">
-        <v>0</v>
+        <v>206</v>
+      </c>
+      <c r="B255" s="15">
+        <v>1</v>
       </c>
       <c r="C255" s="3">
         <v>0</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B256" s="15">
+        <v>0</v>
+      </c>
+      <c r="C256" s="3">
+        <v>0</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B257" s="15">
+        <v>1</v>
+      </c>
+      <c r="C257" s="3">
+        <v>0</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B258" s="15">
+        <v>0</v>
+      </c>
+      <c r="C258" s="3">
+        <v>0</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B259" s="15">
+        <v>1</v>
+      </c>
+      <c r="C259" s="3">
+        <v>0</v>
+      </c>
+      <c r="D259" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B260" s="15">
+        <v>0</v>
+      </c>
+      <c r="C260" s="3">
+        <v>0</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B261" s="15">
+        <v>1</v>
+      </c>
+      <c r="C261" s="3">
+        <v>0</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B262" s="15">
+        <v>0</v>
+      </c>
+      <c r="C262" s="3">
+        <v>0</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B263" s="15">
+        <v>1</v>
+      </c>
+      <c r="C263" s="3">
+        <v>0</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B256" s="3">
-        <v>1</v>
-      </c>
-      <c r="C256" s="3">
-        <v>0</v>
-      </c>
-      <c r="D256" s="6" t="s">
+      <c r="B264" s="15">
+        <v>0</v>
+      </c>
+      <c r="C264" s="3">
+        <v>0</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B265" s="15">
+        <v>1</v>
+      </c>
+      <c r="C265" s="3">
+        <v>0</v>
+      </c>
+      <c r="D265" s="6" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B257" s="3">
-        <v>0</v>
-      </c>
-      <c r="C257" s="3">
-        <v>0</v>
-      </c>
-      <c r="D257" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B258" s="3">
-        <v>1</v>
-      </c>
-      <c r="C258" s="3">
-        <v>0</v>
-      </c>
-      <c r="D258" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B259" s="3">
-        <v>0</v>
-      </c>
-      <c r="C259" s="3">
-        <v>0</v>
-      </c>
-      <c r="D259" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B260" s="3">
-        <v>1</v>
-      </c>
-      <c r="C260" s="3">
-        <v>0</v>
-      </c>
-      <c r="D260" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B261" s="3">
-        <v>0</v>
-      </c>
-      <c r="C261" s="3">
-        <v>0</v>
-      </c>
-      <c r="D261" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B262" s="3">
-        <v>1</v>
-      </c>
-      <c r="C262" s="3">
-        <v>0</v>
-      </c>
-      <c r="D262" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B263" s="3">
-        <v>0</v>
-      </c>
-      <c r="C263" s="3">
-        <v>0</v>
-      </c>
-      <c r="D263" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B264" s="3">
-        <v>1</v>
-      </c>
-      <c r="C264" s="3">
-        <v>0</v>
-      </c>
-      <c r="D264" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B265" s="3">
-        <v>0</v>
-      </c>
-      <c r="C265" s="3">
-        <v>0</v>
-      </c>
-      <c r="D265" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B266" s="3">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="B266" s="15">
+        <v>0</v>
       </c>
       <c r="C266" s="3">
         <v>0</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B267" s="3">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="B267" s="15">
+        <v>1</v>
       </c>
       <c r="C267" s="3">
         <v>0</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B268" s="3">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="B268" s="15">
+        <v>0</v>
       </c>
       <c r="C268" s="3">
         <v>0</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B269" s="3">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="B269" s="15">
+        <v>1</v>
       </c>
       <c r="C269" s="3">
         <v>0</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B270" s="3">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="B270" s="15">
+        <v>0</v>
       </c>
       <c r="C270" s="3">
         <v>0</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B271" s="3">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="B271" s="15">
+        <v>1</v>
       </c>
       <c r="C271" s="3">
         <v>0</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B272" s="3">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="B272" s="15">
+        <v>0</v>
       </c>
       <c r="C272" s="3">
         <v>0</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B273" s="3">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="B273" s="15">
+        <v>1</v>
       </c>
       <c r="C273" s="3">
         <v>0</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B274" s="3">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="B274" s="15">
+        <v>0</v>
       </c>
       <c r="C274" s="3">
         <v>0</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B275" s="3">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="B275" s="15">
+        <v>1</v>
       </c>
       <c r="C275" s="3">
         <v>0</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B276" s="3">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="B276" s="15">
+        <v>0</v>
       </c>
       <c r="C276" s="3">
         <v>0</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B277" s="3">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="B277" s="15">
+        <v>1</v>
       </c>
       <c r="C277" s="3">
         <v>0</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B278" s="3">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="B278" s="15">
+        <v>0</v>
       </c>
       <c r="C278" s="3">
         <v>0</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B279" s="3">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="B279" s="15">
+        <v>1</v>
       </c>
       <c r="C279" s="3">
         <v>0</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B280" s="3">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="B280" s="15">
+        <v>0</v>
       </c>
       <c r="C280" s="3">
         <v>0</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B281" s="3">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="B281" s="15">
+        <v>1</v>
       </c>
       <c r="C281" s="3">
         <v>0</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B282" s="3">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="B282" s="15">
+        <v>0</v>
       </c>
       <c r="C282" s="3">
         <v>0</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B283" s="3">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="B283" s="15">
+        <v>1</v>
       </c>
       <c r="C283" s="3">
         <v>0</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B284" s="3">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="B284" s="15">
+        <v>0</v>
       </c>
       <c r="C284" s="3">
         <v>0</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B285" s="3">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="B285" s="15">
+        <v>1</v>
       </c>
       <c r="C285" s="3">
         <v>0</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B286" s="3">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="B286" s="15">
+        <v>0</v>
       </c>
       <c r="C286" s="3">
         <v>0</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B287" s="3">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="B287" s="15">
+        <v>1</v>
       </c>
       <c r="C287" s="3">
         <v>0</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B288" s="3">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="B288" s="15">
+        <v>0</v>
       </c>
       <c r="C288" s="3">
         <v>0</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B289" s="3">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="B289" s="15">
+        <v>1</v>
       </c>
       <c r="C289" s="3">
         <v>0</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B290" s="3">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="B290" s="15">
+        <v>0</v>
       </c>
       <c r="C290" s="3">
         <v>0</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B291" s="3">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="B291" s="15">
+        <v>1</v>
       </c>
       <c r="C291" s="3">
         <v>0</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B292" s="15">
+        <v>0</v>
+      </c>
+      <c r="C292" s="3">
+        <v>0</v>
+      </c>
+      <c r="D292" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B293" s="15">
+        <v>1</v>
+      </c>
+      <c r="C293" s="3">
+        <v>0</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B294" s="15">
+        <v>0</v>
+      </c>
+      <c r="C294" s="3">
+        <v>0</v>
+      </c>
+      <c r="D294" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B295" s="15">
+        <v>1</v>
+      </c>
+      <c r="C295" s="3">
+        <v>0</v>
+      </c>
+      <c r="D295" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B296" s="15">
+        <v>0</v>
+      </c>
+      <c r="C296" s="3">
+        <v>0</v>
+      </c>
+      <c r="D296" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B297" s="15">
+        <v>1</v>
+      </c>
+      <c r="C297" s="3">
+        <v>0</v>
+      </c>
+      <c r="D297" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B298" s="15">
+        <v>0</v>
+      </c>
+      <c r="C298" s="3">
+        <v>0</v>
+      </c>
+      <c r="D298" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B299" s="15">
+        <v>1</v>
+      </c>
+      <c r="C299" s="3">
+        <v>0</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B292" s="3">
-        <v>1</v>
-      </c>
-      <c r="C292" s="3">
-        <v>0</v>
-      </c>
-      <c r="D292" s="4" t="s">
+      <c r="B300" s="15">
+        <v>0</v>
+      </c>
+      <c r="C300" s="3">
+        <v>0</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B301" s="15">
+        <v>1</v>
+      </c>
+      <c r="C301" s="3">
+        <v>0</v>
+      </c>
+      <c r="D301" s="4" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B293" s="3">
-        <v>0</v>
-      </c>
-      <c r="C293" s="3">
-        <v>0</v>
-      </c>
-      <c r="D293" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B294" s="3">
-        <v>1</v>
-      </c>
-      <c r="C294" s="3">
-        <v>0</v>
-      </c>
-      <c r="D294" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B295" s="3">
-        <v>0</v>
-      </c>
-      <c r="C295" s="3">
-        <v>0</v>
-      </c>
-      <c r="D295" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B296" s="3">
-        <v>1</v>
-      </c>
-      <c r="C296" s="3">
-        <v>0</v>
-      </c>
-      <c r="D296" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B297" s="3">
-        <v>0</v>
-      </c>
-      <c r="C297" s="3">
-        <v>0</v>
-      </c>
-      <c r="D297" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B298" s="3">
-        <v>1</v>
-      </c>
-      <c r="C298" s="3">
-        <v>0</v>
-      </c>
-      <c r="D298" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B299" s="3">
-        <v>0</v>
-      </c>
-      <c r="C299" s="3">
-        <v>0</v>
-      </c>
-      <c r="D299" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B300" s="3">
-        <v>1</v>
-      </c>
-      <c r="C300" s="3">
-        <v>0</v>
-      </c>
-      <c r="D300" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B301" s="3">
-        <v>0</v>
-      </c>
-      <c r="C301" s="3">
-        <v>0</v>
-      </c>
-      <c r="D301" s="6" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B302" s="3">
-        <v>1</v>
+        <v>212</v>
+      </c>
+      <c r="B302" s="15">
+        <v>0</v>
       </c>
       <c r="C302" s="3">
         <v>0</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B303" s="3">
-        <v>0</v>
+        <v>212</v>
+      </c>
+      <c r="B303" s="15">
+        <v>1</v>
       </c>
       <c r="C303" s="3">
         <v>0</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B304" s="3">
-        <v>1</v>
+        <v>213</v>
+      </c>
+      <c r="B304" s="15">
+        <v>0</v>
       </c>
       <c r="C304" s="3">
         <v>0</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B305" s="3">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="B305" s="15">
+        <v>1</v>
       </c>
       <c r="C305" s="3">
         <v>0</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B306" s="3">
-        <v>1</v>
+        <v>214</v>
+      </c>
+      <c r="B306" s="15">
+        <v>0</v>
       </c>
       <c r="C306" s="3">
         <v>0</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B307" s="3">
-        <v>0</v>
+        <v>214</v>
+      </c>
+      <c r="B307" s="15">
+        <v>1</v>
       </c>
       <c r="C307" s="3">
         <v>0</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B308" s="3">
-        <v>1</v>
+        <v>215</v>
+      </c>
+      <c r="B308" s="15">
+        <v>0</v>
       </c>
       <c r="C308" s="3">
         <v>0</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B309" s="3">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="B309" s="15">
+        <v>1</v>
       </c>
       <c r="C309" s="3">
         <v>0</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B310" s="3">
-        <v>1</v>
+        <v>216</v>
+      </c>
+      <c r="B310" s="15">
+        <v>0</v>
       </c>
       <c r="C310" s="3">
         <v>0</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B311" s="3">
-        <v>0</v>
+        <v>216</v>
+      </c>
+      <c r="B311" s="15">
+        <v>1</v>
       </c>
       <c r="C311" s="3">
         <v>0</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B312" s="3">
-        <v>1</v>
+        <v>217</v>
+      </c>
+      <c r="B312" s="15">
+        <v>0</v>
       </c>
       <c r="C312" s="3">
         <v>0</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B313" s="3">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="B313" s="15">
+        <v>1</v>
       </c>
       <c r="C313" s="3">
         <v>0</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B314" s="3">
-        <v>1</v>
+        <v>218</v>
+      </c>
+      <c r="B314" s="15">
+        <v>0</v>
       </c>
       <c r="C314" s="3">
         <v>0</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B315" s="3">
-        <v>0</v>
+        <v>218</v>
+      </c>
+      <c r="B315" s="15">
+        <v>1</v>
       </c>
       <c r="C315" s="3">
         <v>0</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B316" s="3">
-        <v>1</v>
+        <v>219</v>
+      </c>
+      <c r="B316" s="15">
+        <v>0</v>
       </c>
       <c r="C316" s="3">
         <v>0</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B317" s="3">
-        <v>0</v>
+        <v>219</v>
+      </c>
+      <c r="B317" s="15">
+        <v>1</v>
       </c>
       <c r="C317" s="3">
         <v>0</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B318" s="3">
-        <v>1</v>
+        <v>220</v>
+      </c>
+      <c r="B318" s="15">
+        <v>0</v>
       </c>
       <c r="C318" s="3">
         <v>0</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B319" s="3">
-        <v>0</v>
+        <v>220</v>
+      </c>
+      <c r="B319" s="15">
+        <v>1</v>
       </c>
       <c r="C319" s="3">
         <v>0</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B320" s="3">
-        <v>1</v>
+        <v>221</v>
+      </c>
+      <c r="B320" s="15">
+        <v>0</v>
       </c>
       <c r="C320" s="3">
         <v>0</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B321" s="3">
-        <v>0</v>
+        <v>221</v>
+      </c>
+      <c r="B321" s="15">
+        <v>1</v>
       </c>
       <c r="C321" s="3">
         <v>0</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B322" s="3">
-        <v>1</v>
+        <v>222</v>
+      </c>
+      <c r="B322" s="15">
+        <v>0</v>
       </c>
       <c r="C322" s="3">
         <v>0</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B323" s="3">
-        <v>0</v>
+        <v>222</v>
+      </c>
+      <c r="B323" s="15">
+        <v>1</v>
       </c>
       <c r="C323" s="3">
         <v>0</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B324" s="3">
-        <v>1</v>
+        <v>223</v>
+      </c>
+      <c r="B324" s="15">
+        <v>0</v>
       </c>
       <c r="C324" s="3">
         <v>0</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B325" s="3">
-        <v>0</v>
+        <v>223</v>
+      </c>
+      <c r="B325" s="15">
+        <v>1</v>
       </c>
       <c r="C325" s="3">
         <v>0</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B326" s="3">
-        <v>1</v>
+        <v>224</v>
+      </c>
+      <c r="B326" s="15">
+        <v>0</v>
       </c>
       <c r="C326" s="3">
         <v>0</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B327" s="3">
-        <v>0</v>
+        <v>224</v>
+      </c>
+      <c r="B327" s="15">
+        <v>1</v>
       </c>
       <c r="C327" s="3">
         <v>0</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B328" s="3">
-        <v>1</v>
+        <v>225</v>
+      </c>
+      <c r="B328" s="15">
+        <v>0</v>
       </c>
       <c r="C328" s="3">
         <v>0</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B329" s="3">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="B329" s="15">
+        <v>1</v>
       </c>
       <c r="C329" s="3">
         <v>0</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B330" s="3">
-        <v>1</v>
+        <v>226</v>
+      </c>
+      <c r="B330" s="15">
+        <v>0</v>
       </c>
       <c r="C330" s="3">
         <v>0</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B331" s="3">
-        <v>0</v>
+        <v>226</v>
+      </c>
+      <c r="B331" s="15">
+        <v>1</v>
       </c>
       <c r="C331" s="3">
         <v>0</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B332" s="3">
-        <v>1</v>
+        <v>227</v>
+      </c>
+      <c r="B332" s="15">
+        <v>0</v>
       </c>
       <c r="C332" s="3">
         <v>0</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B333" s="3">
-        <v>0</v>
+        <v>227</v>
+      </c>
+      <c r="B333" s="15">
+        <v>1</v>
       </c>
       <c r="C333" s="3">
         <v>0</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B334" s="3">
-        <v>1</v>
+        <v>228</v>
+      </c>
+      <c r="B334" s="15">
+        <v>0</v>
       </c>
       <c r="C334" s="3">
         <v>0</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B335" s="3">
-        <v>0</v>
+        <v>228</v>
+      </c>
+      <c r="B335" s="15">
+        <v>1</v>
       </c>
       <c r="C335" s="3">
         <v>0</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="336" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B336" s="3">
-        <v>1</v>
+        <v>229</v>
+      </c>
+      <c r="B336" s="15">
+        <v>0</v>
       </c>
       <c r="C336" s="3">
         <v>0</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B337" s="3">
-        <v>0</v>
+        <v>229</v>
+      </c>
+      <c r="B337" s="15">
+        <v>1</v>
       </c>
       <c r="C337" s="3">
         <v>0</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B338" s="3">
-        <v>1</v>
+        <v>230</v>
+      </c>
+      <c r="B338" s="15">
+        <v>0</v>
       </c>
       <c r="C338" s="3">
         <v>0</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B339" s="3">
-        <v>0</v>
+        <v>230</v>
+      </c>
+      <c r="B339" s="15">
+        <v>1</v>
       </c>
       <c r="C339" s="3">
         <v>0</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B340" s="3">
-        <v>1</v>
+        <v>231</v>
+      </c>
+      <c r="B340" s="15">
+        <v>0</v>
       </c>
       <c r="C340" s="3">
         <v>0</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B341" s="3">
-        <v>0</v>
+        <v>231</v>
+      </c>
+      <c r="B341" s="15">
+        <v>1</v>
       </c>
       <c r="C341" s="3">
         <v>0</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B342" s="3">
-        <v>1</v>
+        <v>232</v>
+      </c>
+      <c r="B342" s="15">
+        <v>0</v>
       </c>
       <c r="C342" s="3">
         <v>0</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B343" s="3">
-        <v>0</v>
+        <v>232</v>
+      </c>
+      <c r="B343" s="15">
+        <v>1</v>
       </c>
       <c r="C343" s="3">
         <v>0</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B344" s="3">
-        <v>1</v>
+        <v>233</v>
+      </c>
+      <c r="B344" s="15">
+        <v>0</v>
       </c>
       <c r="C344" s="3">
         <v>0</v>
       </c>
       <c r="D344" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B345" s="3">
-        <v>0</v>
+        <v>233</v>
+      </c>
+      <c r="B345" s="15">
+        <v>1</v>
       </c>
       <c r="C345" s="3">
         <v>0</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B346" s="3">
-        <v>1</v>
+        <v>234</v>
+      </c>
+      <c r="B346" s="15">
+        <v>0</v>
       </c>
       <c r="C346" s="3">
         <v>0</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B347" s="3">
-        <v>0</v>
+        <v>234</v>
+      </c>
+      <c r="B347" s="15">
+        <v>1</v>
       </c>
       <c r="C347" s="3">
         <v>0</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="348" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B348" s="3">
-        <v>1</v>
+        <v>235</v>
+      </c>
+      <c r="B348" s="15">
+        <v>0</v>
       </c>
       <c r="C348" s="3">
         <v>0</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B349" s="3">
-        <v>0</v>
+        <v>235</v>
+      </c>
+      <c r="B349" s="15">
+        <v>1</v>
       </c>
       <c r="C349" s="3">
         <v>0</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B350" s="3">
-        <v>1</v>
+        <v>236</v>
+      </c>
+      <c r="B350" s="15">
+        <v>0</v>
       </c>
       <c r="C350" s="3">
         <v>0</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="351" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B351" s="3">
-        <v>0</v>
+        <v>236</v>
+      </c>
+      <c r="B351" s="15">
+        <v>1</v>
       </c>
       <c r="C351" s="3">
         <v>0</v>
       </c>
       <c r="D351" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="352" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B352" s="3">
-        <v>1</v>
+        <v>237</v>
+      </c>
+      <c r="B352" s="15">
+        <v>0</v>
       </c>
       <c r="C352" s="3">
         <v>0</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="353" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B353" s="3">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="B353" s="15">
+        <v>1</v>
       </c>
       <c r="C353" s="3">
         <v>0</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="354" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B354" s="3">
-        <v>1</v>
+        <v>238</v>
+      </c>
+      <c r="B354" s="15">
+        <v>0</v>
       </c>
       <c r="C354" s="3">
         <v>0</v>
       </c>
       <c r="D354" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="355" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B355" s="3">
-        <v>0</v>
+        <v>238</v>
+      </c>
+      <c r="B355" s="15">
+        <v>1</v>
       </c>
       <c r="C355" s="3">
         <v>0</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="356" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B356" s="3">
-        <v>1</v>
+        <v>239</v>
+      </c>
+      <c r="B356" s="15">
+        <v>0</v>
       </c>
       <c r="C356" s="3">
         <v>0</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="357" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B357" s="3">
-        <v>0</v>
+        <v>239</v>
+      </c>
+      <c r="B357" s="15">
+        <v>1</v>
       </c>
       <c r="C357" s="3">
         <v>0</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="358" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B358" s="3">
-        <v>1</v>
+        <v>240</v>
+      </c>
+      <c r="B358" s="15">
+        <v>0</v>
       </c>
       <c r="C358" s="3">
         <v>0</v>
       </c>
       <c r="D358" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B359" s="3">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="B359" s="15">
+        <v>1</v>
       </c>
       <c r="C359" s="3">
         <v>0</v>
       </c>
       <c r="D359" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="360" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B360" s="3">
-        <v>1</v>
+        <v>241</v>
+      </c>
+      <c r="B360" s="15">
+        <v>0</v>
       </c>
       <c r="C360" s="3">
         <v>0</v>
       </c>
       <c r="D360" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="361" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B361" s="3">
-        <v>0</v>
+        <v>241</v>
+      </c>
+      <c r="B361" s="15">
+        <v>1</v>
       </c>
       <c r="C361" s="3">
         <v>0</v>
       </c>
       <c r="D361" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="362" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B362" s="3">
-        <v>1</v>
+        <v>242</v>
+      </c>
+      <c r="B362" s="15">
+        <v>0</v>
       </c>
       <c r="C362" s="3">
         <v>0</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="363" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B363" s="3">
-        <v>0</v>
+        <v>242</v>
+      </c>
+      <c r="B363" s="15">
+        <v>1</v>
       </c>
       <c r="C363" s="3">
         <v>0</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B364" s="3">
-        <v>1</v>
+        <v>243</v>
+      </c>
+      <c r="B364" s="15">
+        <v>0</v>
       </c>
       <c r="C364" s="3">
         <v>0</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B365" s="3">
+        <v>243</v>
+      </c>
+      <c r="B365" s="15">
         <v>1</v>
       </c>
       <c r="C365" s="3">
         <v>0</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>378</v>
+        <v>319</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B366" s="3">
-        <v>2</v>
+        <v>244</v>
+      </c>
+      <c r="B366" s="15">
+        <v>0</v>
       </c>
       <c r="C366" s="3">
         <v>0</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
     </row>
     <row r="367" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B367" s="3">
-        <v>3</v>
+        <v>244</v>
+      </c>
+      <c r="B367" s="15">
+        <v>1</v>
       </c>
       <c r="C367" s="3">
         <v>0</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>376</v>
+        <v>319</v>
       </c>
     </row>
     <row r="368" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B368" s="3">
-        <v>4</v>
+        <v>245</v>
+      </c>
+      <c r="B368" s="15">
+        <v>0</v>
       </c>
       <c r="C368" s="3">
         <v>0</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>377</v>
+        <v>318</v>
       </c>
     </row>
     <row r="369" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B369" s="3">
+        <v>245</v>
+      </c>
+      <c r="B369" s="15">
         <v>1</v>
       </c>
       <c r="C369" s="3">
         <v>0</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>378</v>
+        <v>319</v>
       </c>
     </row>
     <row r="370" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B370" s="3">
-        <v>2</v>
+        <v>246</v>
+      </c>
+      <c r="B370" s="15">
+        <v>0</v>
       </c>
       <c r="C370" s="3">
         <v>0</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B371" s="3">
-        <v>3</v>
+        <v>246</v>
+      </c>
+      <c r="B371" s="15">
+        <v>1</v>
       </c>
       <c r="C371" s="3">
         <v>0</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>376</v>
+        <v>319</v>
       </c>
     </row>
     <row r="372" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B372" s="3">
-        <v>4</v>
+        <v>247</v>
+      </c>
+      <c r="B372" s="15">
+        <v>0</v>
       </c>
       <c r="C372" s="3">
         <v>0</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>377</v>
+        <v>318</v>
       </c>
     </row>
     <row r="373" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B373" s="3">
+        <v>247</v>
+      </c>
+      <c r="B373" s="15">
         <v>1</v>
       </c>
       <c r="C373" s="3">
         <v>0</v>
       </c>
       <c r="D373" s="6" t="s">
-        <v>378</v>
+        <v>319</v>
       </c>
     </row>
     <row r="374" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B374" s="3">
-        <v>2</v>
+        <v>248</v>
+      </c>
+      <c r="B374" s="15">
+        <v>1</v>
       </c>
       <c r="C374" s="3">
         <v>0</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="375" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B375" s="3">
-        <v>3</v>
+        <v>248</v>
+      </c>
+      <c r="B375" s="15">
+        <v>2</v>
       </c>
       <c r="C375" s="3">
         <v>0</v>
       </c>
       <c r="D375" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="376" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B376" s="3">
-        <v>4</v>
+        <v>248</v>
+      </c>
+      <c r="B376" s="15">
+        <v>3</v>
       </c>
       <c r="C376" s="3">
         <v>0</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="377" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B377" s="3">
-        <v>1</v>
+        <v>248</v>
+      </c>
+      <c r="B377" s="15">
+        <v>4</v>
       </c>
       <c r="C377" s="3">
         <v>0</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="378" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B378" s="3">
-        <v>2</v>
+        <v>249</v>
+      </c>
+      <c r="B378" s="15">
+        <v>1</v>
       </c>
       <c r="C378" s="3">
         <v>0</v>
       </c>
       <c r="D378" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="379" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B379" s="3">
-        <v>3</v>
+        <v>249</v>
+      </c>
+      <c r="B379" s="15">
+        <v>2</v>
       </c>
       <c r="C379" s="3">
         <v>0</v>
       </c>
       <c r="D379" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="380" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B380" s="3">
-        <v>4</v>
+        <v>249</v>
+      </c>
+      <c r="B380" s="15">
+        <v>3</v>
       </c>
       <c r="C380" s="3">
         <v>0</v>
       </c>
       <c r="D380" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="381" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B381" s="3">
-        <v>1</v>
+        <v>249</v>
+      </c>
+      <c r="B381" s="15">
+        <v>4</v>
       </c>
       <c r="C381" s="3">
         <v>0</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="382" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B382" s="3">
-        <v>2</v>
+        <v>250</v>
+      </c>
+      <c r="B382" s="15">
+        <v>1</v>
       </c>
       <c r="C382" s="3">
         <v>0</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="383" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B383" s="3">
-        <v>3</v>
+        <v>250</v>
+      </c>
+      <c r="B383" s="15">
+        <v>2</v>
       </c>
       <c r="C383" s="3">
         <v>0</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B384" s="3">
-        <v>4</v>
+        <v>250</v>
+      </c>
+      <c r="B384" s="15">
+        <v>3</v>
       </c>
       <c r="C384" s="3">
         <v>0</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="385" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B385" s="3">
-        <v>1</v>
+        <v>250</v>
+      </c>
+      <c r="B385" s="15">
+        <v>4</v>
       </c>
       <c r="C385" s="3">
         <v>0</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="386" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B386" s="3">
-        <v>2</v>
+        <v>251</v>
+      </c>
+      <c r="B386" s="15">
+        <v>1</v>
       </c>
       <c r="C386" s="3">
         <v>0</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="387" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B387" s="3">
-        <v>3</v>
+        <v>251</v>
+      </c>
+      <c r="B387" s="15">
+        <v>2</v>
       </c>
       <c r="C387" s="3">
         <v>0</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="388" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B388" s="3">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="B388" s="15">
+        <v>3</v>
       </c>
       <c r="C388" s="3">
         <v>0</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B389" s="3">
-        <v>1</v>
+        <v>251</v>
+      </c>
+      <c r="B389" s="15">
+        <v>4</v>
       </c>
       <c r="C389" s="3">
         <v>0</v>
       </c>
       <c r="D389" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="390" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B390" s="3">
-        <v>2</v>
+        <v>252</v>
+      </c>
+      <c r="B390" s="15">
+        <v>1</v>
       </c>
       <c r="C390" s="3">
         <v>0</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="391" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B391" s="3">
-        <v>3</v>
+        <v>252</v>
+      </c>
+      <c r="B391" s="15">
+        <v>2</v>
       </c>
       <c r="C391" s="3">
         <v>0</v>
       </c>
       <c r="D391" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="392" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B392" s="3">
-        <v>4</v>
+        <v>252</v>
+      </c>
+      <c r="B392" s="15">
+        <v>3</v>
       </c>
       <c r="C392" s="3">
         <v>0</v>
       </c>
       <c r="D392" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="393" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B393" s="3">
-        <v>1</v>
+        <v>252</v>
+      </c>
+      <c r="B393" s="15">
+        <v>4</v>
       </c>
       <c r="C393" s="3">
         <v>0</v>
       </c>
       <c r="D393" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B394" s="3">
-        <v>2</v>
+        <v>253</v>
+      </c>
+      <c r="B394" s="15">
+        <v>1</v>
       </c>
       <c r="C394" s="3">
         <v>0</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B395" s="3">
-        <v>3</v>
+        <v>253</v>
+      </c>
+      <c r="B395" s="15">
+        <v>2</v>
       </c>
       <c r="C395" s="3">
         <v>0</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B396" s="3">
-        <v>4</v>
+        <v>253</v>
+      </c>
+      <c r="B396" s="15">
+        <v>3</v>
       </c>
       <c r="C396" s="3">
         <v>0</v>
       </c>
       <c r="D396" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B397" s="3">
-        <v>1</v>
+        <v>253</v>
+      </c>
+      <c r="B397" s="15">
+        <v>4</v>
       </c>
       <c r="C397" s="3">
         <v>0</v>
       </c>
       <c r="D397" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="398" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B398" s="3">
-        <v>2</v>
+        <v>254</v>
+      </c>
+      <c r="B398" s="15">
+        <v>1</v>
       </c>
       <c r="C398" s="3">
         <v>0</v>
       </c>
       <c r="D398" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="399" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B399" s="3">
-        <v>3</v>
+        <v>254</v>
+      </c>
+      <c r="B399" s="15">
+        <v>2</v>
       </c>
       <c r="C399" s="3">
         <v>0</v>
       </c>
       <c r="D399" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="400" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B400" s="3">
-        <v>4</v>
+        <v>254</v>
+      </c>
+      <c r="B400" s="15">
+        <v>3</v>
       </c>
       <c r="C400" s="3">
         <v>0</v>
       </c>
       <c r="D400" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B401" s="3">
-        <v>1</v>
+        <v>254</v>
+      </c>
+      <c r="B401" s="15">
+        <v>4</v>
       </c>
       <c r="C401" s="3">
         <v>0</v>
       </c>
       <c r="D401" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="402" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B402" s="3">
-        <v>2</v>
+        <v>255</v>
+      </c>
+      <c r="B402" s="15">
+        <v>1</v>
       </c>
       <c r="C402" s="3">
         <v>0</v>
       </c>
       <c r="D402" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="403" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B403" s="3">
-        <v>3</v>
+        <v>255</v>
+      </c>
+      <c r="B403" s="15">
+        <v>2</v>
       </c>
       <c r="C403" s="3">
         <v>0</v>
       </c>
       <c r="D403" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="404" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B404" s="3">
-        <v>4</v>
+        <v>255</v>
+      </c>
+      <c r="B404" s="15">
+        <v>3</v>
       </c>
       <c r="C404" s="3">
         <v>0</v>
       </c>
       <c r="D404" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B405" s="3">
-        <v>1</v>
+        <v>255</v>
+      </c>
+      <c r="B405" s="15">
+        <v>4</v>
       </c>
       <c r="C405" s="3">
         <v>0</v>
       </c>
       <c r="D405" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="406" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B406" s="3">
-        <v>2</v>
+        <v>256</v>
+      </c>
+      <c r="B406" s="15">
+        <v>1</v>
       </c>
       <c r="C406" s="3">
         <v>0</v>
       </c>
       <c r="D406" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="407" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B407" s="3">
-        <v>3</v>
+        <v>256</v>
+      </c>
+      <c r="B407" s="15">
+        <v>2</v>
       </c>
       <c r="C407" s="3">
         <v>0</v>
       </c>
       <c r="D407" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="408" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B408" s="3">
-        <v>4</v>
+        <v>256</v>
+      </c>
+      <c r="B408" s="15">
+        <v>3</v>
       </c>
       <c r="C408" s="3">
         <v>0</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="409" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B409" s="3">
-        <v>1</v>
+        <v>256</v>
+      </c>
+      <c r="B409" s="15">
+        <v>4</v>
       </c>
       <c r="C409" s="3">
         <v>0</v>
       </c>
       <c r="D409" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="410" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B410" s="3">
-        <v>2</v>
+        <v>257</v>
+      </c>
+      <c r="B410" s="15">
+        <v>1</v>
       </c>
       <c r="C410" s="3">
         <v>0</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="411" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B411" s="3">
-        <v>3</v>
+        <v>257</v>
+      </c>
+      <c r="B411" s="15">
+        <v>2</v>
       </c>
       <c r="C411" s="3">
         <v>0</v>
       </c>
       <c r="D411" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="412" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B412" s="3">
-        <v>4</v>
+        <v>257</v>
+      </c>
+      <c r="B412" s="15">
+        <v>3</v>
       </c>
       <c r="C412" s="3">
         <v>0</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B413" s="3">
-        <v>1</v>
+        <v>257</v>
+      </c>
+      <c r="B413" s="15">
+        <v>4</v>
       </c>
       <c r="C413" s="3">
         <v>0</v>
       </c>
       <c r="D413" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="414" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B414" s="3">
-        <v>2</v>
+        <v>258</v>
+      </c>
+      <c r="B414" s="15">
+        <v>1</v>
       </c>
       <c r="C414" s="3">
         <v>0</v>
       </c>
       <c r="D414" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B415" s="3">
-        <v>3</v>
+        <v>258</v>
+      </c>
+      <c r="B415" s="15">
+        <v>2</v>
       </c>
       <c r="C415" s="3">
         <v>0</v>
       </c>
       <c r="D415" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="416" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B416" s="3">
-        <v>4</v>
+        <v>258</v>
+      </c>
+      <c r="B416" s="15">
+        <v>3</v>
       </c>
       <c r="C416" s="3">
         <v>0</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="417" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B417" s="3">
-        <v>1</v>
+        <v>258</v>
+      </c>
+      <c r="B417" s="15">
+        <v>4</v>
       </c>
       <c r="C417" s="3">
         <v>0</v>
       </c>
       <c r="D417" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B418" s="3">
-        <v>2</v>
+        <v>259</v>
+      </c>
+      <c r="B418" s="15">
+        <v>1</v>
       </c>
       <c r="C418" s="3">
         <v>0</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="419" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B419" s="3">
-        <v>3</v>
+        <v>259</v>
+      </c>
+      <c r="B419" s="15">
+        <v>2</v>
       </c>
       <c r="C419" s="3">
         <v>0</v>
       </c>
       <c r="D419" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B420" s="3">
-        <v>4</v>
+        <v>259</v>
+      </c>
+      <c r="B420" s="15">
+        <v>3</v>
       </c>
       <c r="C420" s="3">
         <v>0</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="421" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B421" s="3">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="B421" s="15">
+        <v>4</v>
       </c>
       <c r="C421" s="3">
         <v>0</v>
       </c>
       <c r="D421" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="422" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B422" s="3">
-        <v>2</v>
+        <v>260</v>
+      </c>
+      <c r="B422" s="15">
+        <v>1</v>
       </c>
       <c r="C422" s="3">
         <v>0</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="423" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B423" s="3">
-        <v>3</v>
+        <v>260</v>
+      </c>
+      <c r="B423" s="15">
+        <v>2</v>
       </c>
       <c r="C423" s="3">
         <v>0</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="424" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B424" s="3">
-        <v>4</v>
+        <v>260</v>
+      </c>
+      <c r="B424" s="15">
+        <v>3</v>
       </c>
       <c r="C424" s="3">
         <v>0</v>
       </c>
       <c r="D424" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="425" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B425" s="3">
-        <v>1</v>
+        <v>260</v>
+      </c>
+      <c r="B425" s="15">
+        <v>4</v>
       </c>
       <c r="C425" s="3">
         <v>0</v>
       </c>
       <c r="D425" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="426" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B426" s="3">
-        <v>2</v>
+        <v>261</v>
+      </c>
+      <c r="B426" s="15">
+        <v>1</v>
       </c>
       <c r="C426" s="3">
         <v>0</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="427" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B427" s="3">
-        <v>3</v>
+        <v>261</v>
+      </c>
+      <c r="B427" s="15">
+        <v>2</v>
       </c>
       <c r="C427" s="3">
         <v>0</v>
       </c>
       <c r="D427" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="428" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B428" s="3">
-        <v>4</v>
+        <v>261</v>
+      </c>
+      <c r="B428" s="15">
+        <v>3</v>
       </c>
       <c r="C428" s="3">
         <v>0</v>
       </c>
       <c r="D428" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="429" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B429" s="3">
-        <v>1</v>
+        <v>261</v>
+      </c>
+      <c r="B429" s="15">
+        <v>4</v>
       </c>
       <c r="C429" s="3">
         <v>0</v>
       </c>
       <c r="D429" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="430" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B430" s="3">
-        <v>2</v>
+        <v>262</v>
+      </c>
+      <c r="B430" s="15">
+        <v>1</v>
       </c>
       <c r="C430" s="3">
         <v>0</v>
       </c>
       <c r="D430" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="431" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B431" s="3">
-        <v>3</v>
+        <v>262</v>
+      </c>
+      <c r="B431" s="15">
+        <v>2</v>
       </c>
       <c r="C431" s="3">
         <v>0</v>
       </c>
       <c r="D431" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="432" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B432" s="3">
-        <v>4</v>
+        <v>262</v>
+      </c>
+      <c r="B432" s="15">
+        <v>3</v>
       </c>
       <c r="C432" s="3">
         <v>0</v>
       </c>
       <c r="D432" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="433" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B433" s="3">
-        <v>1</v>
+        <v>262</v>
+      </c>
+      <c r="B433" s="15">
+        <v>4</v>
       </c>
       <c r="C433" s="3">
         <v>0</v>
       </c>
       <c r="D433" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="434" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B434" s="3">
-        <v>2</v>
+        <v>263</v>
+      </c>
+      <c r="B434" s="15">
+        <v>1</v>
       </c>
       <c r="C434" s="3">
         <v>0</v>
       </c>
       <c r="D434" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="435" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B435" s="3">
-        <v>3</v>
+        <v>263</v>
+      </c>
+      <c r="B435" s="15">
+        <v>2</v>
       </c>
       <c r="C435" s="3">
         <v>0</v>
       </c>
       <c r="D435" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="436" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B436" s="3">
-        <v>4</v>
+        <v>263</v>
+      </c>
+      <c r="B436" s="15">
+        <v>3</v>
       </c>
       <c r="C436" s="3">
         <v>0</v>
       </c>
       <c r="D436" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="437" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B437" s="3">
-        <v>0</v>
+        <v>263</v>
+      </c>
+      <c r="B437" s="15">
+        <v>4</v>
       </c>
       <c r="C437" s="3">
         <v>0</v>
       </c>
       <c r="D437" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="438" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B438" s="3">
+        <v>264</v>
+      </c>
+      <c r="B438" s="15">
         <v>1</v>
       </c>
       <c r="C438" s="3">
         <v>0</v>
       </c>
       <c r="D438" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="439" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B439" s="3">
-        <v>0</v>
+        <v>264</v>
+      </c>
+      <c r="B439" s="15">
+        <v>2</v>
       </c>
       <c r="C439" s="3">
         <v>0</v>
       </c>
       <c r="D439" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="440" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B440" s="3">
-        <v>1</v>
+        <v>264</v>
+      </c>
+      <c r="B440" s="15">
+        <v>3</v>
       </c>
       <c r="C440" s="3">
         <v>0</v>
       </c>
       <c r="D440" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="441" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B441" s="3">
-        <v>0</v>
+        <v>264</v>
+      </c>
+      <c r="B441" s="15">
+        <v>4</v>
       </c>
       <c r="C441" s="3">
         <v>0</v>
       </c>
       <c r="D441" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="442" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B442" s="3">
+        <v>265</v>
+      </c>
+      <c r="B442" s="15">
         <v>1</v>
       </c>
       <c r="C442" s="3">
         <v>0</v>
       </c>
       <c r="D442" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="443" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B443" s="3">
-        <v>0</v>
+        <v>265</v>
+      </c>
+      <c r="B443" s="15">
+        <v>2</v>
       </c>
       <c r="C443" s="3">
         <v>0</v>
       </c>
       <c r="D443" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="444" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B444" s="3">
-        <v>1</v>
+        <v>265</v>
+      </c>
+      <c r="B444" s="15">
+        <v>3</v>
       </c>
       <c r="C444" s="3">
         <v>0</v>
       </c>
       <c r="D444" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="445" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B445" s="3">
-        <v>0</v>
+        <v>265</v>
+      </c>
+      <c r="B445" s="15">
+        <v>4</v>
       </c>
       <c r="C445" s="3">
         <v>0</v>
       </c>
       <c r="D445" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="446" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B446" s="3">
-        <v>1</v>
+        <v>266</v>
+      </c>
+      <c r="B446" s="15">
+        <v>0</v>
       </c>
       <c r="C446" s="3">
         <v>0</v>
       </c>
       <c r="D446" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="447" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B447" s="3">
-        <v>0</v>
+        <v>266</v>
+      </c>
+      <c r="B447" s="15">
+        <v>1</v>
       </c>
       <c r="C447" s="3">
         <v>0</v>
       </c>
       <c r="D447" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="448" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B448" s="3">
-        <v>1</v>
+        <v>267</v>
+      </c>
+      <c r="B448" s="15">
+        <v>0</v>
       </c>
       <c r="C448" s="3">
         <v>0</v>
       </c>
       <c r="D448" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="449" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B449" s="3">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="B449" s="15">
+        <v>1</v>
       </c>
       <c r="C449" s="3">
         <v>0</v>
       </c>
       <c r="D449" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="450" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B450" s="3">
-        <v>1</v>
+        <v>268</v>
+      </c>
+      <c r="B450" s="15">
+        <v>0</v>
       </c>
       <c r="C450" s="3">
         <v>0</v>
       </c>
       <c r="D450" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="451" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B451" s="3">
-        <v>0</v>
+        <v>268</v>
+      </c>
+      <c r="B451" s="15">
+        <v>1</v>
       </c>
       <c r="C451" s="3">
         <v>0</v>
       </c>
       <c r="D451" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="452" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B452" s="3">
-        <v>1</v>
+        <v>269</v>
+      </c>
+      <c r="B452" s="15">
+        <v>0</v>
       </c>
       <c r="C452" s="3">
         <v>0</v>
       </c>
       <c r="D452" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="453" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B453" s="3">
-        <v>0</v>
+        <v>269</v>
+      </c>
+      <c r="B453" s="15">
+        <v>1</v>
       </c>
       <c r="C453" s="3">
         <v>0</v>
       </c>
       <c r="D453" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="454" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B454" s="3">
-        <v>1</v>
+        <v>270</v>
+      </c>
+      <c r="B454" s="15">
+        <v>0</v>
       </c>
       <c r="C454" s="3">
         <v>0</v>
       </c>
       <c r="D454" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="455" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B455" s="3">
-        <v>0</v>
+        <v>270</v>
+      </c>
+      <c r="B455" s="15">
+        <v>1</v>
       </c>
       <c r="C455" s="3">
         <v>0</v>
       </c>
       <c r="D455" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="456" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B456" s="3">
-        <v>1</v>
+        <v>271</v>
+      </c>
+      <c r="B456" s="15">
+        <v>0</v>
       </c>
       <c r="C456" s="3">
         <v>0</v>
       </c>
       <c r="D456" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="457" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B457" s="3">
-        <v>0</v>
+        <v>271</v>
+      </c>
+      <c r="B457" s="15">
+        <v>1</v>
       </c>
       <c r="C457" s="3">
         <v>0</v>
       </c>
       <c r="D457" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="458" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B458" s="3">
-        <v>1</v>
+        <v>272</v>
+      </c>
+      <c r="B458" s="15">
+        <v>0</v>
       </c>
       <c r="C458" s="3">
         <v>0</v>
       </c>
       <c r="D458" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="459" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B459" s="3">
-        <v>0</v>
+        <v>272</v>
+      </c>
+      <c r="B459" s="15">
+        <v>1</v>
       </c>
       <c r="C459" s="3">
         <v>0</v>
       </c>
       <c r="D459" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="460" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B460" s="3">
-        <v>1</v>
+        <v>273</v>
+      </c>
+      <c r="B460" s="15">
+        <v>0</v>
       </c>
       <c r="C460" s="3">
         <v>0</v>
       </c>
       <c r="D460" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="461" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B461" s="3">
-        <v>0</v>
+        <v>273</v>
+      </c>
+      <c r="B461" s="15">
+        <v>1</v>
       </c>
       <c r="C461" s="3">
         <v>0</v>
       </c>
       <c r="D461" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="462" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B462" s="3">
-        <v>1</v>
+        <v>274</v>
+      </c>
+      <c r="B462" s="15">
+        <v>0</v>
       </c>
       <c r="C462" s="3">
         <v>0</v>
       </c>
       <c r="D462" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="463" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B463" s="3">
-        <v>0</v>
+        <v>274</v>
+      </c>
+      <c r="B463" s="15">
+        <v>1</v>
       </c>
       <c r="C463" s="3">
         <v>0</v>
       </c>
       <c r="D463" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="464" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B464" s="3">
-        <v>1</v>
+        <v>275</v>
+      </c>
+      <c r="B464" s="15">
+        <v>0</v>
       </c>
       <c r="C464" s="3">
         <v>0</v>
       </c>
       <c r="D464" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="465" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B465" s="3">
-        <v>0</v>
+        <v>275</v>
+      </c>
+      <c r="B465" s="15">
+        <v>1</v>
       </c>
       <c r="C465" s="3">
         <v>0</v>
       </c>
       <c r="D465" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="466" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B466" s="3">
-        <v>1</v>
+        <v>276</v>
+      </c>
+      <c r="B466" s="15">
+        <v>0</v>
       </c>
       <c r="C466" s="3">
         <v>0</v>
       </c>
       <c r="D466" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="467" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B467" s="3">
-        <v>0</v>
+        <v>276</v>
+      </c>
+      <c r="B467" s="15">
+        <v>1</v>
       </c>
       <c r="C467" s="3">
         <v>0</v>
       </c>
       <c r="D467" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="468" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B468" s="3">
-        <v>1</v>
+        <v>277</v>
+      </c>
+      <c r="B468" s="15">
+        <v>0</v>
       </c>
       <c r="C468" s="3">
         <v>0</v>
       </c>
       <c r="D468" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="469" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B469" s="3">
-        <v>0</v>
+        <v>277</v>
+      </c>
+      <c r="B469" s="15">
+        <v>1</v>
       </c>
       <c r="C469" s="3">
         <v>0</v>
       </c>
       <c r="D469" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="470" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B470" s="3">
-        <v>1</v>
+        <v>278</v>
+      </c>
+      <c r="B470" s="15">
+        <v>0</v>
       </c>
       <c r="C470" s="3">
         <v>0</v>
       </c>
       <c r="D470" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="471" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B471" s="3">
-        <v>0</v>
+        <v>278</v>
+      </c>
+      <c r="B471" s="15">
+        <v>1</v>
       </c>
       <c r="C471" s="3">
         <v>0</v>
       </c>
       <c r="D471" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="472" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B472" s="15">
+        <v>0</v>
+      </c>
+      <c r="C472" s="3">
+        <v>0</v>
+      </c>
+      <c r="D472" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B473" s="15">
+        <v>1</v>
+      </c>
+      <c r="C473" s="3">
+        <v>0</v>
+      </c>
+      <c r="D473" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B474" s="15">
+        <v>0</v>
+      </c>
+      <c r="C474" s="3">
+        <v>0</v>
+      </c>
+      <c r="D474" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B475" s="15">
+        <v>1</v>
+      </c>
+      <c r="C475" s="3">
+        <v>0</v>
+      </c>
+      <c r="D475" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B476" s="15">
+        <v>0</v>
+      </c>
+      <c r="C476" s="3">
+        <v>0</v>
+      </c>
+      <c r="D476" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B477" s="15">
+        <v>1</v>
+      </c>
+      <c r="C477" s="3">
+        <v>0</v>
+      </c>
+      <c r="D477" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B478" s="15">
+        <v>0</v>
+      </c>
+      <c r="C478" s="3">
+        <v>0</v>
+      </c>
+      <c r="D478" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B479" s="15">
+        <v>1</v>
+      </c>
+      <c r="C479" s="3">
+        <v>0</v>
+      </c>
+      <c r="D479" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A480" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B472" s="3">
-        <v>1</v>
-      </c>
-      <c r="C472" s="3">
-        <v>0</v>
-      </c>
-      <c r="D472" s="6" t="s">
+      <c r="B480" s="15">
+        <v>0</v>
+      </c>
+      <c r="C480" s="3">
+        <v>0</v>
+      </c>
+      <c r="D480" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A481" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B481" s="15">
+        <v>1</v>
+      </c>
+      <c r="C481" s="3">
+        <v>0</v>
+      </c>
+      <c r="D481" s="6" t="s">
         <v>380</v>
       </c>
     </row>

--- a/R/data/dictionaries/1_0/1_0_non_repeated.xlsx
+++ b/R/data/dictionaries/1_0/1_0_non_repeated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/1_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229D6262-6724-B841-9328-7C25149FE05C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBACDDD-0331-4846-BF2A-B5217FA0866E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,9 +107,6 @@
     <t>variable</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -1413,6 +1410,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>isMissing</t>
   </si>
 </sst>
 </file>
@@ -2015,7 +2015,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="2" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -2084,13 +2084,13 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -2099,37 +2099,37 @@
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="E5"/>
     </row>
@@ -2144,7 +2144,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E6"/>
     </row>
@@ -2159,13 +2159,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E7"/>
     </row>
     <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
@@ -2174,13 +2174,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E8"/>
     </row>
     <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
@@ -2189,13 +2189,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E9"/>
     </row>
     <row r="10" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
@@ -2204,13 +2204,13 @@
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E10"/>
     </row>
     <row r="11" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>3</v>
@@ -2219,7 +2219,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E11"/>
     </row>
@@ -2234,7 +2234,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E12"/>
     </row>
@@ -2249,13 +2249,13 @@
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E13"/>
     </row>
     <row r="14" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
@@ -2264,13 +2264,13 @@
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E14"/>
     </row>
     <row r="15" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>3</v>
@@ -2279,13 +2279,13 @@
         <v>12</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>11</v>
@@ -2294,13 +2294,13 @@
         <v>23</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E16"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>3</v>
@@ -2309,13 +2309,13 @@
         <v>4</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E17"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>3</v>
@@ -2324,13 +2324,13 @@
         <v>12</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E18"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>11</v>
@@ -2339,13 +2339,13 @@
         <v>23</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E19"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>3</v>
@@ -2354,13 +2354,13 @@
         <v>4</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E20"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>3</v>
@@ -2369,13 +2369,13 @@
         <v>12</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E21"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>11</v>
@@ -2384,13 +2384,13 @@
         <v>23</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>3</v>
@@ -2399,13 +2399,13 @@
         <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E23"/>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>11</v>
@@ -2414,13 +2414,13 @@
         <v>22</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E24"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>3</v>
@@ -2429,13 +2429,13 @@
         <v>4</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E25"/>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>3</v>
@@ -2444,13 +2444,13 @@
         <v>4</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E26"/>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>3</v>
@@ -2459,13 +2459,13 @@
         <v>4</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E27"/>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>3</v>
@@ -2474,13 +2474,13 @@
         <v>4</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E28"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>3</v>
@@ -2489,13 +2489,13 @@
         <v>4</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E29"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>3</v>
@@ -2504,13 +2504,13 @@
         <v>4</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E30"/>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>3</v>
@@ -2519,13 +2519,13 @@
         <v>4</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E31"/>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>3</v>
@@ -2534,13 +2534,13 @@
         <v>4</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E32"/>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>3</v>
@@ -2549,13 +2549,13 @@
         <v>4</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E33"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>3</v>
@@ -2564,13 +2564,13 @@
         <v>4</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E34"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>3</v>
@@ -2579,13 +2579,13 @@
         <v>4</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E35"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>3</v>
@@ -2594,13 +2594,13 @@
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E36"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>3</v>
@@ -2609,7 +2609,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E37"/>
     </row>
@@ -2624,7 +2624,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E38"/>
     </row>
@@ -2639,7 +2639,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E39"/>
     </row>
@@ -2654,7 +2654,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E40"/>
     </row>
@@ -2669,7 +2669,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E41"/>
     </row>
@@ -2684,13 +2684,13 @@
         <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E42"/>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>3</v>
@@ -2699,13 +2699,13 @@
         <v>4</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E43"/>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>3</v>
@@ -2714,13 +2714,13 @@
         <v>4</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E44"/>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>3</v>
@@ -2729,13 +2729,13 @@
         <v>4</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E45"/>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>3</v>
@@ -2744,13 +2744,13 @@
         <v>4</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E46"/>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>3</v>
@@ -2759,13 +2759,13 @@
         <v>4</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E47"/>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>3</v>
@@ -2774,13 +2774,13 @@
         <v>4</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E48"/>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>3</v>
@@ -2789,13 +2789,13 @@
         <v>4</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E49"/>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>3</v>
@@ -2804,13 +2804,13 @@
         <v>4</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E50"/>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>3</v>
@@ -2819,13 +2819,13 @@
         <v>4</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E51"/>
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>3</v>
@@ -2834,13 +2834,13 @@
         <v>4</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E52"/>
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>3</v>
@@ -2849,13 +2849,13 @@
         <v>4</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E53"/>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>3</v>
@@ -2864,28 +2864,28 @@
         <v>4</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E54"/>
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>391</v>
       </c>
       <c r="E55"/>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>3</v>
@@ -2894,7 +2894,7 @@
         <v>4</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E56"/>
     </row>
@@ -2909,13 +2909,13 @@
         <v>4</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E57"/>
     </row>
     <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>3</v>
@@ -2924,13 +2924,13 @@
         <v>4</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E58"/>
     </row>
     <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>3</v>
@@ -2939,13 +2939,13 @@
         <v>4</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E59"/>
     </row>
     <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>3</v>
@@ -2954,13 +2954,13 @@
         <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E60"/>
     </row>
     <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>3</v>
@@ -2969,13 +2969,13 @@
         <v>4</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E61"/>
     </row>
     <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>3</v>
@@ -2984,13 +2984,13 @@
         <v>4</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E62"/>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>3</v>
@@ -2999,13 +2999,13 @@
         <v>4</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E63"/>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>3</v>
@@ -3014,13 +3014,13 @@
         <v>4</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E64"/>
     </row>
     <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>3</v>
@@ -3029,13 +3029,13 @@
         <v>4</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E65"/>
     </row>
     <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>3</v>
@@ -3044,13 +3044,13 @@
         <v>4</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E66"/>
     </row>
     <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>3</v>
@@ -3059,13 +3059,13 @@
         <v>12</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E67"/>
     </row>
     <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>3</v>
@@ -3074,13 +3074,13 @@
         <v>4</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E68"/>
     </row>
     <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>3</v>
@@ -3089,13 +3089,13 @@
         <v>4</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E69"/>
     </row>
     <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>3</v>
@@ -3104,13 +3104,13 @@
         <v>12</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E70"/>
     </row>
     <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>3</v>
@@ -3119,13 +3119,13 @@
         <v>4</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E71"/>
     </row>
     <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>11</v>
@@ -3134,13 +3134,13 @@
         <v>23</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E72"/>
     </row>
     <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>3</v>
@@ -3149,13 +3149,13 @@
         <v>4</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E73"/>
     </row>
     <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>3</v>
@@ -3164,13 +3164,13 @@
         <v>4</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E74"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>11</v>
@@ -3179,13 +3179,13 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E75"/>
     </row>
     <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>3</v>
@@ -3194,13 +3194,13 @@
         <v>4</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E76"/>
     </row>
     <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>3</v>
@@ -3209,13 +3209,13 @@
         <v>4</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E77"/>
     </row>
     <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>3</v>
@@ -3224,13 +3224,13 @@
         <v>4</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E78"/>
     </row>
     <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>3</v>
@@ -3239,13 +3239,13 @@
         <v>4</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E79"/>
     </row>
     <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>3</v>
@@ -3254,13 +3254,13 @@
         <v>4</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E80"/>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>3</v>
@@ -3269,13 +3269,13 @@
         <v>4</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E81"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>3</v>
@@ -3284,13 +3284,13 @@
         <v>4</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E82"/>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>3</v>
@@ -3299,13 +3299,13 @@
         <v>4</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E83"/>
     </row>
     <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>3</v>
@@ -3314,13 +3314,13 @@
         <v>4</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E84"/>
     </row>
     <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>3</v>
@@ -3329,13 +3329,13 @@
         <v>4</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E85"/>
     </row>
     <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>3</v>
@@ -3344,13 +3344,13 @@
         <v>4</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E86"/>
     </row>
     <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>3</v>
@@ -3359,7 +3359,7 @@
         <v>4</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E87"/>
     </row>
@@ -3374,7 +3374,7 @@
         <v>4</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E88"/>
     </row>
@@ -3389,13 +3389,13 @@
         <v>4</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E89"/>
     </row>
     <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>3</v>
@@ -3404,13 +3404,13 @@
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E90"/>
     </row>
     <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>3</v>
@@ -3419,13 +3419,13 @@
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E91"/>
     </row>
     <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>3</v>
@@ -3434,7 +3434,7 @@
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E92"/>
     </row>
@@ -3449,28 +3449,28 @@
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E93"/>
     </row>
     <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E94"/>
     </row>
     <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>11</v>
@@ -3479,13 +3479,13 @@
         <v>22</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E95"/>
     </row>
     <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>11</v>
@@ -3494,13 +3494,13 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E96"/>
     </row>
     <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>3</v>
@@ -3509,28 +3509,28 @@
         <v>4</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E97"/>
     </row>
     <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E98"/>
     </row>
     <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>3</v>
@@ -3539,13 +3539,13 @@
         <v>4</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E99"/>
     </row>
     <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>3</v>
@@ -3554,13 +3554,13 @@
         <v>4</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E100"/>
     </row>
     <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>3</v>
@@ -3569,13 +3569,13 @@
         <v>4</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E101"/>
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>3</v>
@@ -3584,13 +3584,13 @@
         <v>4</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E102"/>
     </row>
     <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>3</v>
@@ -3599,12 +3599,12 @@
         <v>4</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>3</v>
@@ -3613,7 +3613,7 @@
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3627,7 +3627,7 @@
         <v>7</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3641,7 +3641,7 @@
         <v>7</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3655,12 +3655,12 @@
         <v>4</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>3</v>
@@ -3669,12 +3669,12 @@
         <v>7</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>11</v>
@@ -3683,12 +3683,12 @@
         <v>7</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>3</v>
@@ -3697,7 +3697,7 @@
         <v>12</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -3713,8 +3713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A90" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3734,10 +3734,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>463</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3997,13 +3997,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C20" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4165,18 +4165,18 @@
         <v>6</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C32" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="15">
         <v>0</v>
@@ -4185,12 +4185,12 @@
         <v>0</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="15">
         <v>1</v>
@@ -4199,12 +4199,12 @@
         <v>0</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35" s="15">
         <v>2</v>
@@ -4213,26 +4213,26 @@
         <v>0</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C36" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B37" s="15">
         <v>1</v>
@@ -4241,12 +4241,12 @@
         <v>0</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" s="15">
         <v>2</v>
@@ -4255,12 +4255,12 @@
         <v>0</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="15">
         <v>3</v>
@@ -4269,26 +4269,26 @@
         <v>0</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C40" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" s="15">
         <v>1</v>
@@ -4297,12 +4297,12 @@
         <v>0</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B42" s="15">
         <v>2</v>
@@ -4311,12 +4311,12 @@
         <v>0</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="15">
         <v>3</v>
@@ -4325,26 +4325,26 @@
         <v>0</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C44" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B45" s="15">
         <v>1</v>
@@ -4353,12 +4353,12 @@
         <v>0</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B46" s="15">
         <v>2</v>
@@ -4367,12 +4367,12 @@
         <v>0</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B47" s="15">
         <v>3</v>
@@ -4381,26 +4381,26 @@
         <v>0</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C48" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B49" s="15">
         <v>0</v>
@@ -4409,12 +4409,12 @@
         <v>0</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B50" s="15">
         <v>1</v>
@@ -4423,26 +4423,26 @@
         <v>0</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C51" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B52" s="15">
         <v>0</v>
@@ -4451,12 +4451,12 @@
         <v>0</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B53" s="15">
         <v>1</v>
@@ -4465,26 +4465,26 @@
         <v>0</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C54" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55" s="15">
         <v>0</v>
@@ -4493,12 +4493,12 @@
         <v>0</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B56" s="15">
         <v>1</v>
@@ -4507,497 +4507,497 @@
         <v>0</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C57" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B58" s="15">
         <v>0</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B59" s="15">
         <v>1</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B60" s="15">
         <v>2</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B61" s="15">
         <v>3</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B62" s="15">
         <v>0</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B63" s="15">
         <v>1</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B64" s="15">
         <v>1</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B65" s="15">
         <v>2</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B66" s="15">
         <v>3</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B67" s="15">
         <v>4</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B68" s="15">
         <v>5</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B69" s="15">
         <v>0</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B70" s="15">
         <v>1</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B71" s="15">
         <v>0</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B72" s="15">
         <v>1</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B73" s="15">
         <v>0</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B74" s="15">
         <v>1</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B75" s="15">
         <v>0</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B76" s="15">
         <v>1</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B77" s="15">
         <v>0</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B78" s="15">
         <v>1</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B79" s="15">
         <v>0</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B80" s="15">
         <v>1</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B81" s="15">
         <v>0</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B82" s="15">
         <v>1</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B83" s="15">
         <v>0</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B84" s="15">
         <v>1</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B85" s="15">
         <v>0</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B86" s="15">
         <v>1</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B87" s="15">
         <v>0</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B88" s="15">
         <v>1</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B89" s="15">
         <v>0</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B90" s="15">
         <v>1</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B91" s="15">
         <v>2</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5007,11 +5007,11 @@
       <c r="B92" s="15">
         <v>0</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5021,11 +5021,11 @@
       <c r="B93" s="15">
         <v>1</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5035,11 +5035,11 @@
       <c r="B94" s="15">
         <v>0</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5049,11 +5049,11 @@
       <c r="B95" s="15">
         <v>1</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5063,11 +5063,11 @@
       <c r="B96" s="15">
         <v>0</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5077,11 +5077,11 @@
       <c r="B97" s="15">
         <v>1</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5091,11 +5091,11 @@
       <c r="B98" s="15">
         <v>0</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5105,11 +5105,11 @@
       <c r="B99" s="15">
         <v>1</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5119,11 +5119,11 @@
       <c r="B100" s="15">
         <v>0</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5133,11 +5133,11 @@
       <c r="B101" s="15">
         <v>1</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5147,371 +5147,371 @@
       <c r="B102" s="15">
         <v>2</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B103" s="15">
         <v>0</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B104" s="15">
         <v>1</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B105" s="15">
         <v>0</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B106" s="15">
         <v>1</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B107" s="15">
         <v>2</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B108" s="15">
         <v>3</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B109" s="15">
         <v>4</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B110" s="15">
         <v>0</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B111" s="15">
         <v>1</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B112" s="15">
         <v>0</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B113" s="15">
+        <v>1</v>
+      </c>
+      <c r="C113" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="B113" s="15">
-        <v>1</v>
-      </c>
-      <c r="C113" s="3">
-        <v>0</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B114" s="15">
         <v>2</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B115" s="15">
         <v>3</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B116" s="15">
         <v>0</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B117" s="15">
         <v>1</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B118" s="15">
         <v>0</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B119" s="15">
         <v>1</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B120" s="15">
         <v>0</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B121" s="15">
         <v>1</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B122" s="15">
         <v>0</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B123" s="15">
         <v>1</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B124" s="15">
         <v>0</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B125" s="15">
         <v>1</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B126" s="15">
         <v>0</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B127" s="15">
         <v>1</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B128" s="15">
         <v>0</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D128" s="13">
@@ -5520,12 +5520,12 @@
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B129" s="15">
         <v>1</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D129" s="13">
@@ -5534,12 +5534,12 @@
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B130" s="15">
         <v>2</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D130" s="13">
@@ -5548,12 +5548,12 @@
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B131" s="15">
         <v>3</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D131" s="13">
@@ -5562,100 +5562,100 @@
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B132" s="15">
         <v>4</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B133" s="15">
         <v>1</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B134" s="15">
         <v>2</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B135" s="15">
         <v>0</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B136" s="15">
         <v>1</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B137" s="15">
         <v>0</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B138" s="15">
         <v>1</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5665,11 +5665,11 @@
       <c r="B139" s="15">
         <v>1</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5679,11 +5679,11 @@
       <c r="B140" s="15">
         <v>2</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5693,11 +5693,11 @@
       <c r="B141" s="15">
         <v>3</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5707,11 +5707,11 @@
       <c r="B142" s="15">
         <v>4</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5721,11 +5721,11 @@
       <c r="B143" s="15">
         <v>5</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5735,935 +5735,935 @@
       <c r="B144" s="15">
         <v>6</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B145" s="15">
         <v>1</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B146" s="15">
         <v>2</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B147" s="15">
         <v>3</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B148" s="15">
         <v>4</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B149" s="15">
         <v>5</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B150" s="15">
         <v>0</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C150" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B151" s="15">
         <v>1</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B152" s="15">
         <v>0</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B153" s="15">
         <v>1</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B154" s="15">
         <v>2</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B155" s="15">
         <v>1</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B156" s="15">
         <v>2</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B157" s="15">
         <v>3</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B158" s="15">
         <v>4</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B159" s="15">
         <v>1</v>
       </c>
-      <c r="C159" s="3">
+      <c r="C159" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B160" s="15">
         <v>2</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B161" s="15">
         <v>3</v>
       </c>
-      <c r="C161" s="3">
+      <c r="C161" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B162" s="15">
         <v>1</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C162" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B163" s="15">
         <v>2</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C163" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B164" s="15">
         <v>3</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C164" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B165" s="15">
         <v>1</v>
       </c>
-      <c r="C165" s="3">
+      <c r="C165" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B166" s="15">
         <v>2</v>
       </c>
-      <c r="C166" s="3">
+      <c r="C166" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B167" s="15">
         <v>3</v>
       </c>
-      <c r="C167" s="3">
+      <c r="C167" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B168" s="15">
         <v>1</v>
       </c>
-      <c r="C168" s="3">
+      <c r="C168" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B169" s="15">
         <v>2</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C169" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B170" s="15">
         <v>3</v>
       </c>
-      <c r="C170" s="3">
+      <c r="C170" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B171" s="15">
         <v>4</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C171" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B172" s="15">
         <v>0</v>
       </c>
-      <c r="C172" s="3">
+      <c r="C172" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B173" s="15">
         <v>1</v>
       </c>
-      <c r="C173" s="3">
+      <c r="C173" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B174" s="15">
         <v>1</v>
       </c>
-      <c r="C174" s="3">
+      <c r="C174" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B175" s="15">
         <v>2</v>
       </c>
-      <c r="C175" s="3">
+      <c r="C175" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B176" s="15">
         <v>3</v>
       </c>
-      <c r="C176" s="3">
+      <c r="C176" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B177" s="15">
         <v>4</v>
       </c>
-      <c r="C177" s="3">
+      <c r="C177" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B178" s="15">
         <v>0</v>
       </c>
-      <c r="C178" s="3">
+      <c r="C178" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B179" s="15">
         <v>1</v>
       </c>
-      <c r="C179" s="3">
+      <c r="C179" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B180" s="15">
         <v>2</v>
       </c>
-      <c r="C180" s="3">
+      <c r="C180" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B181" s="15">
         <v>1</v>
       </c>
-      <c r="C181" s="3">
+      <c r="C181" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B182" s="15">
         <v>2</v>
       </c>
-      <c r="C182" s="3">
+      <c r="C182" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B183" s="15">
         <v>3</v>
       </c>
-      <c r="C183" s="3">
+      <c r="C183" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B184" s="15">
         <v>4</v>
       </c>
-      <c r="C184" s="3">
+      <c r="C184" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B185" s="15">
         <v>0</v>
       </c>
-      <c r="C185" s="3">
+      <c r="C185" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B186" s="15">
         <v>1</v>
       </c>
-      <c r="C186" s="3">
+      <c r="C186" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B187" s="15">
         <v>2</v>
       </c>
-      <c r="C187" s="3">
+      <c r="C187" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B188" s="15">
         <v>1</v>
       </c>
-      <c r="C188" s="3">
+      <c r="C188" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B189" s="15">
         <v>2</v>
       </c>
-      <c r="C189" s="3">
+      <c r="C189" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B190" s="15">
         <v>3</v>
       </c>
-      <c r="C190" s="3">
+      <c r="C190" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B191" s="15">
         <v>4</v>
       </c>
-      <c r="C191" s="3">
+      <c r="C191" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B192" s="15">
         <v>1</v>
       </c>
-      <c r="C192" s="3">
+      <c r="C192" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B193" s="15">
         <v>2</v>
       </c>
-      <c r="C193" s="3">
+      <c r="C193" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B194" s="15">
         <v>3</v>
       </c>
-      <c r="C194" s="3">
+      <c r="C194" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B195" s="15">
         <v>4</v>
       </c>
-      <c r="C195" s="3">
+      <c r="C195" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B196" s="15">
         <v>0</v>
       </c>
-      <c r="C196" s="3">
+      <c r="C196" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B197" s="15">
         <v>1</v>
       </c>
-      <c r="C197" s="3">
+      <c r="C197" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B198" s="15">
         <v>0</v>
       </c>
-      <c r="C198" s="3">
+      <c r="C198" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B199" s="15">
         <v>1</v>
       </c>
-      <c r="C199" s="3">
+      <c r="C199" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B200" s="15">
         <v>0</v>
       </c>
-      <c r="C200" s="3">
+      <c r="C200" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B201" s="15">
         <v>1</v>
       </c>
-      <c r="C201" s="3">
+      <c r="C201" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B202" s="15">
         <v>0</v>
       </c>
-      <c r="C202" s="3">
+      <c r="C202" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B203" s="15">
         <v>1</v>
       </c>
-      <c r="C203" s="3">
+      <c r="C203" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B204" s="15">
         <v>2</v>
       </c>
-      <c r="C204" s="3">
+      <c r="C204" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B205" s="15">
         <v>1</v>
       </c>
-      <c r="C205" s="3">
+      <c r="C205" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B206" s="15">
         <v>2</v>
       </c>
-      <c r="C206" s="3">
+      <c r="C206" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B207" s="15">
         <v>3</v>
       </c>
-      <c r="C207" s="3">
+      <c r="C207" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B208" s="15">
         <v>4</v>
       </c>
-      <c r="C208" s="3">
+      <c r="C208" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B209" s="15">
         <v>0</v>
       </c>
-      <c r="C209" s="3">
+      <c r="C209" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B210" s="15">
         <v>1</v>
       </c>
-      <c r="C210" s="3">
+      <c r="C210" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6673,11 +6673,11 @@
       <c r="B211" s="15">
         <v>1</v>
       </c>
-      <c r="C211" s="3">
+      <c r="C211" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6687,11 +6687,11 @@
       <c r="B212" s="15">
         <v>2</v>
       </c>
-      <c r="C212" s="3">
+      <c r="C212" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6701,11 +6701,11 @@
       <c r="B213" s="15">
         <v>1</v>
       </c>
-      <c r="C213" s="3">
+      <c r="C213" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6715,11 +6715,11 @@
       <c r="B214" s="15">
         <v>2</v>
       </c>
-      <c r="C214" s="3">
+      <c r="C214" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6729,147 +6729,147 @@
       <c r="B215" s="15">
         <v>3</v>
       </c>
-      <c r="C215" s="3">
+      <c r="C215" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B216" s="15">
         <v>1</v>
       </c>
-      <c r="C216" s="3">
+      <c r="C216" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B217" s="15">
         <v>2</v>
       </c>
-      <c r="C217" s="3">
+      <c r="C217" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B218" s="15">
         <v>3</v>
       </c>
-      <c r="C218" s="3">
+      <c r="C218" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B219" s="15">
         <v>0</v>
       </c>
-      <c r="C219" s="3">
+      <c r="C219" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B220" s="15">
         <v>1</v>
       </c>
-      <c r="C220" s="3">
+      <c r="C220" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B221" s="15">
         <v>0</v>
       </c>
-      <c r="C221" s="3">
+      <c r="C221" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B222" s="15">
         <v>1</v>
       </c>
-      <c r="C222" s="3">
+      <c r="C222" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B223" s="15">
         <v>0</v>
       </c>
-      <c r="C223" s="3">
+      <c r="C223" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B224" s="15">
         <v>1</v>
       </c>
-      <c r="C224" s="3">
+      <c r="C224" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B225" s="15">
         <v>1</v>
       </c>
-      <c r="C225" s="3">
+      <c r="C225" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D225" s="13">
@@ -6878,12 +6878,12 @@
     </row>
     <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B226" s="15">
         <v>2</v>
       </c>
-      <c r="C226" s="3">
+      <c r="C226" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D226" s="13">
@@ -6892,12 +6892,12 @@
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B227" s="15">
         <v>3</v>
       </c>
-      <c r="C227" s="3">
+      <c r="C227" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D227" s="13">
@@ -6906,12 +6906,12 @@
     </row>
     <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B228" s="15">
         <v>4</v>
       </c>
-      <c r="C228" s="3">
+      <c r="C228" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D228" s="13">
@@ -6920,44 +6920,44 @@
     </row>
     <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B229" s="15">
         <v>5</v>
       </c>
-      <c r="C229" s="3">
+      <c r="C229" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B230" s="15">
         <v>0</v>
       </c>
-      <c r="C230" s="3">
+      <c r="C230" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B231" s="15">
         <v>1</v>
       </c>
-      <c r="C231" s="3">
+      <c r="C231" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6967,11 +6967,11 @@
       <c r="B232" s="15">
         <v>0</v>
       </c>
-      <c r="C232" s="3">
+      <c r="C232" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6981,3483 +6981,3483 @@
       <c r="B233" s="15">
         <v>1</v>
       </c>
-      <c r="C233" s="3">
+      <c r="C233" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B234" s="15">
         <v>0</v>
       </c>
-      <c r="C234" s="3">
+      <c r="C234" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B235" s="15">
         <v>1</v>
       </c>
-      <c r="C235" s="3">
+      <c r="C235" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B236" s="15">
         <v>0</v>
       </c>
-      <c r="C236" s="3">
+      <c r="C236" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B237" s="15">
         <v>1</v>
       </c>
-      <c r="C237" s="3">
+      <c r="C237" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B238" s="15">
         <v>0</v>
       </c>
-      <c r="C238" s="3">
+      <c r="C238" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B239" s="15">
         <v>1</v>
       </c>
-      <c r="C239" s="3">
+      <c r="C239" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B240" s="15">
         <v>0</v>
       </c>
-      <c r="C240" s="3">
+      <c r="C240" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B241" s="15">
         <v>1</v>
       </c>
-      <c r="C241" s="3">
+      <c r="C241" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B242" s="15">
         <v>0</v>
       </c>
-      <c r="C242" s="3">
+      <c r="C242" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B243" s="15">
         <v>1</v>
       </c>
-      <c r="C243" s="3">
+      <c r="C243" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B244" s="15">
         <v>0</v>
       </c>
-      <c r="C244" s="3">
+      <c r="C244" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B245" s="15">
         <v>1</v>
       </c>
-      <c r="C245" s="3">
+      <c r="C245" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B246" s="15">
         <v>0</v>
       </c>
-      <c r="C246" s="3">
+      <c r="C246" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B247" s="15">
         <v>1</v>
       </c>
-      <c r="C247" s="3">
+      <c r="C247" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B248" s="15">
         <v>0</v>
       </c>
-      <c r="C248" s="3">
+      <c r="C248" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B249" s="15">
         <v>1</v>
       </c>
-      <c r="C249" s="3">
+      <c r="C249" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B250" s="15">
         <v>0</v>
       </c>
-      <c r="C250" s="3">
+      <c r="C250" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B251" s="15">
         <v>1</v>
       </c>
-      <c r="C251" s="3">
+      <c r="C251" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B252" s="15">
         <v>0</v>
       </c>
-      <c r="C252" s="3">
+      <c r="C252" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B253" s="15">
         <v>1</v>
       </c>
-      <c r="C253" s="3">
+      <c r="C253" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B254" s="15">
         <v>0</v>
       </c>
-      <c r="C254" s="3">
+      <c r="C254" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B255" s="15">
         <v>1</v>
       </c>
-      <c r="C255" s="3">
+      <c r="C255" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B256" s="15">
         <v>0</v>
       </c>
-      <c r="C256" s="3">
+      <c r="C256" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B257" s="15">
         <v>1</v>
       </c>
-      <c r="C257" s="3">
+      <c r="C257" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B258" s="15">
         <v>0</v>
       </c>
-      <c r="C258" s="3">
+      <c r="C258" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B259" s="15">
         <v>1</v>
       </c>
-      <c r="C259" s="3">
+      <c r="C259" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B260" s="15">
         <v>0</v>
       </c>
-      <c r="C260" s="3">
+      <c r="C260" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B261" s="15">
         <v>1</v>
       </c>
-      <c r="C261" s="3">
+      <c r="C261" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B262" s="15">
         <v>0</v>
       </c>
-      <c r="C262" s="3">
+      <c r="C262" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B263" s="15">
         <v>1</v>
       </c>
-      <c r="C263" s="3">
+      <c r="C263" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B264" s="15">
         <v>0</v>
       </c>
-      <c r="C264" s="3">
+      <c r="C264" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B265" s="15">
         <v>1</v>
       </c>
-      <c r="C265" s="3">
+      <c r="C265" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B266" s="15">
         <v>0</v>
       </c>
-      <c r="C266" s="3">
+      <c r="C266" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B267" s="15">
         <v>1</v>
       </c>
-      <c r="C267" s="3">
+      <c r="C267" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B268" s="15">
         <v>0</v>
       </c>
-      <c r="C268" s="3">
+      <c r="C268" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B269" s="15">
         <v>1</v>
       </c>
-      <c r="C269" s="3">
+      <c r="C269" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B270" s="15">
         <v>0</v>
       </c>
-      <c r="C270" s="3">
+      <c r="C270" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B271" s="15">
         <v>1</v>
       </c>
-      <c r="C271" s="3">
+      <c r="C271" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B272" s="15">
         <v>0</v>
       </c>
-      <c r="C272" s="3">
+      <c r="C272" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B273" s="15">
         <v>1</v>
       </c>
-      <c r="C273" s="3">
+      <c r="C273" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B274" s="15">
         <v>0</v>
       </c>
-      <c r="C274" s="3">
+      <c r="C274" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B275" s="15">
         <v>1</v>
       </c>
-      <c r="C275" s="3">
+      <c r="C275" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B276" s="15">
         <v>0</v>
       </c>
-      <c r="C276" s="3">
+      <c r="C276" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B277" s="15">
         <v>1</v>
       </c>
-      <c r="C277" s="3">
+      <c r="C277" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B278" s="15">
         <v>0</v>
       </c>
-      <c r="C278" s="3">
+      <c r="C278" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B279" s="15">
         <v>1</v>
       </c>
-      <c r="C279" s="3">
+      <c r="C279" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B280" s="15">
         <v>0</v>
       </c>
-      <c r="C280" s="3">
+      <c r="C280" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B281" s="15">
         <v>1</v>
       </c>
-      <c r="C281" s="3">
+      <c r="C281" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B282" s="15">
         <v>0</v>
       </c>
-      <c r="C282" s="3">
+      <c r="C282" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B283" s="15">
         <v>1</v>
       </c>
-      <c r="C283" s="3">
+      <c r="C283" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B284" s="15">
         <v>0</v>
       </c>
-      <c r="C284" s="3">
+      <c r="C284" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B285" s="15">
         <v>1</v>
       </c>
-      <c r="C285" s="3">
+      <c r="C285" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B286" s="15">
         <v>0</v>
       </c>
-      <c r="C286" s="3">
+      <c r="C286" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B287" s="15">
         <v>1</v>
       </c>
-      <c r="C287" s="3">
+      <c r="C287" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B288" s="15">
         <v>0</v>
       </c>
-      <c r="C288" s="3">
+      <c r="C288" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B289" s="15">
         <v>1</v>
       </c>
-      <c r="C289" s="3">
+      <c r="C289" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B290" s="15">
         <v>0</v>
       </c>
-      <c r="C290" s="3">
+      <c r="C290" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B291" s="15">
         <v>1</v>
       </c>
-      <c r="C291" s="3">
+      <c r="C291" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B292" s="15">
         <v>0</v>
       </c>
-      <c r="C292" s="3">
+      <c r="C292" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B293" s="15">
         <v>1</v>
       </c>
-      <c r="C293" s="3">
+      <c r="C293" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B294" s="15">
         <v>0</v>
       </c>
-      <c r="C294" s="3">
+      <c r="C294" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B295" s="15">
         <v>1</v>
       </c>
-      <c r="C295" s="3">
+      <c r="C295" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B296" s="15">
         <v>0</v>
       </c>
-      <c r="C296" s="3">
+      <c r="C296" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B297" s="15">
         <v>1</v>
       </c>
-      <c r="C297" s="3">
+      <c r="C297" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B298" s="15">
         <v>0</v>
       </c>
-      <c r="C298" s="3">
+      <c r="C298" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B299" s="15">
         <v>1</v>
       </c>
-      <c r="C299" s="3">
+      <c r="C299" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B300" s="15">
+        <v>0</v>
+      </c>
+      <c r="C300" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D300" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B300" s="15">
-        <v>0</v>
-      </c>
-      <c r="C300" s="3">
-        <v>0</v>
-      </c>
-      <c r="D300" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B301" s="15">
         <v>1</v>
       </c>
-      <c r="C301" s="3">
+      <c r="C301" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B302" s="15">
         <v>0</v>
       </c>
-      <c r="C302" s="3">
+      <c r="C302" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B303" s="15">
         <v>1</v>
       </c>
-      <c r="C303" s="3">
+      <c r="C303" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B304" s="15">
         <v>0</v>
       </c>
-      <c r="C304" s="3">
+      <c r="C304" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B305" s="15">
         <v>1</v>
       </c>
-      <c r="C305" s="3">
+      <c r="C305" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B306" s="15">
         <v>0</v>
       </c>
-      <c r="C306" s="3">
+      <c r="C306" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B307" s="15">
         <v>1</v>
       </c>
-      <c r="C307" s="3">
+      <c r="C307" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B308" s="15">
         <v>0</v>
       </c>
-      <c r="C308" s="3">
+      <c r="C308" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B309" s="15">
         <v>1</v>
       </c>
-      <c r="C309" s="3">
+      <c r="C309" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B310" s="15">
         <v>0</v>
       </c>
-      <c r="C310" s="3">
+      <c r="C310" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B311" s="15">
         <v>1</v>
       </c>
-      <c r="C311" s="3">
+      <c r="C311" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B312" s="15">
         <v>0</v>
       </c>
-      <c r="C312" s="3">
+      <c r="C312" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B313" s="15">
         <v>1</v>
       </c>
-      <c r="C313" s="3">
+      <c r="C313" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B314" s="15">
         <v>0</v>
       </c>
-      <c r="C314" s="3">
+      <c r="C314" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B315" s="15">
         <v>1</v>
       </c>
-      <c r="C315" s="3">
+      <c r="C315" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B316" s="15">
         <v>0</v>
       </c>
-      <c r="C316" s="3">
+      <c r="C316" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B317" s="15">
         <v>1</v>
       </c>
-      <c r="C317" s="3">
+      <c r="C317" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B318" s="15">
         <v>0</v>
       </c>
-      <c r="C318" s="3">
+      <c r="C318" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B319" s="15">
         <v>1</v>
       </c>
-      <c r="C319" s="3">
+      <c r="C319" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B320" s="15">
         <v>0</v>
       </c>
-      <c r="C320" s="3">
+      <c r="C320" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B321" s="15">
         <v>1</v>
       </c>
-      <c r="C321" s="3">
+      <c r="C321" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B322" s="15">
         <v>0</v>
       </c>
-      <c r="C322" s="3">
+      <c r="C322" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B323" s="15">
         <v>1</v>
       </c>
-      <c r="C323" s="3">
+      <c r="C323" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B324" s="15">
         <v>0</v>
       </c>
-      <c r="C324" s="3">
+      <c r="C324" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B325" s="15">
         <v>1</v>
       </c>
-      <c r="C325" s="3">
+      <c r="C325" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B326" s="15">
         <v>0</v>
       </c>
-      <c r="C326" s="3">
+      <c r="C326" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B327" s="15">
         <v>1</v>
       </c>
-      <c r="C327" s="3">
+      <c r="C327" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B328" s="15">
         <v>0</v>
       </c>
-      <c r="C328" s="3">
+      <c r="C328" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B329" s="15">
         <v>1</v>
       </c>
-      <c r="C329" s="3">
+      <c r="C329" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B330" s="15">
         <v>0</v>
       </c>
-      <c r="C330" s="3">
+      <c r="C330" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B331" s="15">
         <v>1</v>
       </c>
-      <c r="C331" s="3">
+      <c r="C331" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B332" s="15">
         <v>0</v>
       </c>
-      <c r="C332" s="3">
+      <c r="C332" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B333" s="15">
         <v>1</v>
       </c>
-      <c r="C333" s="3">
+      <c r="C333" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B334" s="15">
         <v>0</v>
       </c>
-      <c r="C334" s="3">
+      <c r="C334" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B335" s="15">
         <v>1</v>
       </c>
-      <c r="C335" s="3">
+      <c r="C335" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="336" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B336" s="15">
         <v>0</v>
       </c>
-      <c r="C336" s="3">
+      <c r="C336" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B337" s="15">
         <v>1</v>
       </c>
-      <c r="C337" s="3">
+      <c r="C337" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B338" s="15">
         <v>0</v>
       </c>
-      <c r="C338" s="3">
+      <c r="C338" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B339" s="15">
         <v>1</v>
       </c>
-      <c r="C339" s="3">
+      <c r="C339" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B340" s="15">
         <v>0</v>
       </c>
-      <c r="C340" s="3">
+      <c r="C340" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B341" s="15">
         <v>1</v>
       </c>
-      <c r="C341" s="3">
+      <c r="C341" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B342" s="15">
         <v>0</v>
       </c>
-      <c r="C342" s="3">
+      <c r="C342" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B343" s="15">
         <v>1</v>
       </c>
-      <c r="C343" s="3">
+      <c r="C343" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B344" s="15">
         <v>0</v>
       </c>
-      <c r="C344" s="3">
+      <c r="C344" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D344" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B345" s="15">
         <v>1</v>
       </c>
-      <c r="C345" s="3">
+      <c r="C345" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B346" s="15">
         <v>0</v>
       </c>
-      <c r="C346" s="3">
+      <c r="C346" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B347" s="15">
         <v>1</v>
       </c>
-      <c r="C347" s="3">
+      <c r="C347" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="348" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B348" s="15">
         <v>0</v>
       </c>
-      <c r="C348" s="3">
+      <c r="C348" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B349" s="15">
         <v>1</v>
       </c>
-      <c r="C349" s="3">
+      <c r="C349" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B350" s="15">
         <v>0</v>
       </c>
-      <c r="C350" s="3">
+      <c r="C350" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="351" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B351" s="15">
         <v>1</v>
       </c>
-      <c r="C351" s="3">
+      <c r="C351" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D351" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="352" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B352" s="15">
         <v>0</v>
       </c>
-      <c r="C352" s="3">
+      <c r="C352" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="353" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B353" s="15">
         <v>1</v>
       </c>
-      <c r="C353" s="3">
+      <c r="C353" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="354" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B354" s="15">
         <v>0</v>
       </c>
-      <c r="C354" s="3">
+      <c r="C354" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D354" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="355" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B355" s="15">
         <v>1</v>
       </c>
-      <c r="C355" s="3">
+      <c r="C355" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="356" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B356" s="15">
         <v>0</v>
       </c>
-      <c r="C356" s="3">
+      <c r="C356" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="357" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B357" s="15">
         <v>1</v>
       </c>
-      <c r="C357" s="3">
+      <c r="C357" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="358" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B358" s="15">
         <v>0</v>
       </c>
-      <c r="C358" s="3">
+      <c r="C358" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D358" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B359" s="15">
         <v>1</v>
       </c>
-      <c r="C359" s="3">
+      <c r="C359" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D359" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="360" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B360" s="15">
         <v>0</v>
       </c>
-      <c r="C360" s="3">
+      <c r="C360" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D360" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="361" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B361" s="15">
         <v>1</v>
       </c>
-      <c r="C361" s="3">
+      <c r="C361" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D361" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="362" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B362" s="15">
         <v>0</v>
       </c>
-      <c r="C362" s="3">
+      <c r="C362" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="363" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B363" s="15">
         <v>1</v>
       </c>
-      <c r="C363" s="3">
+      <c r="C363" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B364" s="15">
         <v>0</v>
       </c>
-      <c r="C364" s="3">
+      <c r="C364" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B365" s="15">
         <v>1</v>
       </c>
-      <c r="C365" s="3">
+      <c r="C365" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B366" s="15">
         <v>0</v>
       </c>
-      <c r="C366" s="3">
+      <c r="C366" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="367" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B367" s="15">
         <v>1</v>
       </c>
-      <c r="C367" s="3">
+      <c r="C367" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="368" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B368" s="15">
         <v>0</v>
       </c>
-      <c r="C368" s="3">
+      <c r="C368" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="369" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B369" s="15">
         <v>1</v>
       </c>
-      <c r="C369" s="3">
+      <c r="C369" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="370" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B370" s="15">
         <v>0</v>
       </c>
-      <c r="C370" s="3">
+      <c r="C370" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B371" s="15">
         <v>1</v>
       </c>
-      <c r="C371" s="3">
+      <c r="C371" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="372" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B372" s="15">
         <v>0</v>
       </c>
-      <c r="C372" s="3">
+      <c r="C372" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="373" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B373" s="15">
         <v>1</v>
       </c>
-      <c r="C373" s="3">
+      <c r="C373" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D373" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="374" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B374" s="15">
         <v>1</v>
       </c>
-      <c r="C374" s="3">
+      <c r="C374" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="375" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B375" s="15">
         <v>2</v>
       </c>
-      <c r="C375" s="3">
+      <c r="C375" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D375" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="376" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B376" s="15">
         <v>3</v>
       </c>
-      <c r="C376" s="3">
+      <c r="C376" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="377" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B377" s="15">
         <v>4</v>
       </c>
-      <c r="C377" s="3">
+      <c r="C377" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="378" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B378" s="15">
         <v>1</v>
       </c>
-      <c r="C378" s="3">
+      <c r="C378" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D378" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="379" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B379" s="15">
         <v>2</v>
       </c>
-      <c r="C379" s="3">
+      <c r="C379" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D379" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="380" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B380" s="15">
         <v>3</v>
       </c>
-      <c r="C380" s="3">
+      <c r="C380" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D380" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="381" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B381" s="15">
         <v>4</v>
       </c>
-      <c r="C381" s="3">
+      <c r="C381" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="382" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B382" s="15">
         <v>1</v>
       </c>
-      <c r="C382" s="3">
+      <c r="C382" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="383" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B383" s="15">
         <v>2</v>
       </c>
-      <c r="C383" s="3">
+      <c r="C383" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B384" s="15">
         <v>3</v>
       </c>
-      <c r="C384" s="3">
+      <c r="C384" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="385" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B385" s="15">
         <v>4</v>
       </c>
-      <c r="C385" s="3">
+      <c r="C385" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="386" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B386" s="15">
         <v>1</v>
       </c>
-      <c r="C386" s="3">
+      <c r="C386" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="387" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B387" s="15">
         <v>2</v>
       </c>
-      <c r="C387" s="3">
+      <c r="C387" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="388" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B388" s="15">
         <v>3</v>
       </c>
-      <c r="C388" s="3">
+      <c r="C388" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B389" s="15">
         <v>4</v>
       </c>
-      <c r="C389" s="3">
+      <c r="C389" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D389" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="390" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B390" s="15">
         <v>1</v>
       </c>
-      <c r="C390" s="3">
+      <c r="C390" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="391" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B391" s="15">
         <v>2</v>
       </c>
-      <c r="C391" s="3">
+      <c r="C391" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D391" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="392" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B392" s="15">
         <v>3</v>
       </c>
-      <c r="C392" s="3">
+      <c r="C392" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D392" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="393" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B393" s="15">
         <v>4</v>
       </c>
-      <c r="C393" s="3">
+      <c r="C393" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D393" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B394" s="15">
         <v>1</v>
       </c>
-      <c r="C394" s="3">
+      <c r="C394" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B395" s="15">
         <v>2</v>
       </c>
-      <c r="C395" s="3">
+      <c r="C395" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B396" s="15">
         <v>3</v>
       </c>
-      <c r="C396" s="3">
+      <c r="C396" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D396" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B397" s="15">
         <v>4</v>
       </c>
-      <c r="C397" s="3">
+      <c r="C397" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D397" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="398" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B398" s="15">
         <v>1</v>
       </c>
-      <c r="C398" s="3">
+      <c r="C398" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D398" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="399" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B399" s="15">
         <v>2</v>
       </c>
-      <c r="C399" s="3">
+      <c r="C399" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D399" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="400" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B400" s="15">
         <v>3</v>
       </c>
-      <c r="C400" s="3">
+      <c r="C400" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D400" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B401" s="15">
         <v>4</v>
       </c>
-      <c r="C401" s="3">
+      <c r="C401" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D401" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="402" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B402" s="15">
         <v>1</v>
       </c>
-      <c r="C402" s="3">
+      <c r="C402" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D402" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="403" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B403" s="15">
         <v>2</v>
       </c>
-      <c r="C403" s="3">
+      <c r="C403" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D403" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="404" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B404" s="15">
         <v>3</v>
       </c>
-      <c r="C404" s="3">
+      <c r="C404" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D404" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B405" s="15">
         <v>4</v>
       </c>
-      <c r="C405" s="3">
+      <c r="C405" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D405" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="406" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B406" s="15">
         <v>1</v>
       </c>
-      <c r="C406" s="3">
+      <c r="C406" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D406" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="407" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B407" s="15">
         <v>2</v>
       </c>
-      <c r="C407" s="3">
+      <c r="C407" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D407" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="408" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B408" s="15">
         <v>3</v>
       </c>
-      <c r="C408" s="3">
+      <c r="C408" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="409" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B409" s="15">
         <v>4</v>
       </c>
-      <c r="C409" s="3">
+      <c r="C409" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D409" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="410" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B410" s="15">
         <v>1</v>
       </c>
-      <c r="C410" s="3">
+      <c r="C410" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="411" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B411" s="15">
         <v>2</v>
       </c>
-      <c r="C411" s="3">
+      <c r="C411" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D411" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="412" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B412" s="15">
         <v>3</v>
       </c>
-      <c r="C412" s="3">
+      <c r="C412" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B413" s="15">
         <v>4</v>
       </c>
-      <c r="C413" s="3">
+      <c r="C413" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D413" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="414" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B414" s="15">
         <v>1</v>
       </c>
-      <c r="C414" s="3">
+      <c r="C414" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D414" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B415" s="15">
         <v>2</v>
       </c>
-      <c r="C415" s="3">
+      <c r="C415" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D415" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="416" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B416" s="15">
         <v>3</v>
       </c>
-      <c r="C416" s="3">
+      <c r="C416" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="417" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B417" s="15">
         <v>4</v>
       </c>
-      <c r="C417" s="3">
+      <c r="C417" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D417" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B418" s="15">
         <v>1</v>
       </c>
-      <c r="C418" s="3">
+      <c r="C418" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="419" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B419" s="15">
         <v>2</v>
       </c>
-      <c r="C419" s="3">
+      <c r="C419" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D419" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B420" s="15">
         <v>3</v>
       </c>
-      <c r="C420" s="3">
+      <c r="C420" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="421" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B421" s="15">
         <v>4</v>
       </c>
-      <c r="C421" s="3">
+      <c r="C421" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D421" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="422" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B422" s="15">
         <v>1</v>
       </c>
-      <c r="C422" s="3">
+      <c r="C422" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="423" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B423" s="15">
         <v>2</v>
       </c>
-      <c r="C423" s="3">
+      <c r="C423" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="424" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B424" s="15">
         <v>3</v>
       </c>
-      <c r="C424" s="3">
+      <c r="C424" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D424" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="425" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B425" s="15">
         <v>4</v>
       </c>
-      <c r="C425" s="3">
+      <c r="C425" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D425" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="426" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B426" s="15">
         <v>1</v>
       </c>
-      <c r="C426" s="3">
+      <c r="C426" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="427" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B427" s="15">
         <v>2</v>
       </c>
-      <c r="C427" s="3">
+      <c r="C427" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D427" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="428" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B428" s="15">
         <v>3</v>
       </c>
-      <c r="C428" s="3">
+      <c r="C428" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D428" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="429" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B429" s="15">
         <v>4</v>
       </c>
-      <c r="C429" s="3">
+      <c r="C429" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D429" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="430" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B430" s="15">
         <v>1</v>
       </c>
-      <c r="C430" s="3">
+      <c r="C430" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D430" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="431" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B431" s="15">
         <v>2</v>
       </c>
-      <c r="C431" s="3">
+      <c r="C431" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D431" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="432" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B432" s="15">
         <v>3</v>
       </c>
-      <c r="C432" s="3">
+      <c r="C432" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D432" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="433" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B433" s="15">
         <v>4</v>
       </c>
-      <c r="C433" s="3">
+      <c r="C433" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D433" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="434" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B434" s="15">
         <v>1</v>
       </c>
-      <c r="C434" s="3">
+      <c r="C434" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D434" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="435" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B435" s="15">
         <v>2</v>
       </c>
-      <c r="C435" s="3">
+      <c r="C435" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D435" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="436" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B436" s="15">
         <v>3</v>
       </c>
-      <c r="C436" s="3">
+      <c r="C436" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D436" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="437" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B437" s="15">
         <v>4</v>
       </c>
-      <c r="C437" s="3">
+      <c r="C437" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D437" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="438" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B438" s="15">
         <v>1</v>
       </c>
-      <c r="C438" s="3">
+      <c r="C438" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D438" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="439" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B439" s="15">
         <v>2</v>
       </c>
-      <c r="C439" s="3">
+      <c r="C439" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D439" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="440" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B440" s="15">
         <v>3</v>
       </c>
-      <c r="C440" s="3">
+      <c r="C440" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D440" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="441" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B441" s="15">
         <v>4</v>
       </c>
-      <c r="C441" s="3">
+      <c r="C441" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D441" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="442" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B442" s="15">
         <v>1</v>
       </c>
-      <c r="C442" s="3">
+      <c r="C442" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D442" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="443" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B443" s="15">
         <v>2</v>
       </c>
-      <c r="C443" s="3">
+      <c r="C443" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D443" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="444" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B444" s="15">
         <v>3</v>
       </c>
-      <c r="C444" s="3">
+      <c r="C444" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D444" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="445" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B445" s="15">
         <v>4</v>
       </c>
-      <c r="C445" s="3">
+      <c r="C445" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D445" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="446" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B446" s="15">
         <v>0</v>
       </c>
-      <c r="C446" s="3">
+      <c r="C446" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D446" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="447" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B447" s="15">
         <v>1</v>
       </c>
-      <c r="C447" s="3">
+      <c r="C447" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D447" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="448" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B448" s="15">
         <v>0</v>
       </c>
-      <c r="C448" s="3">
+      <c r="C448" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D448" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="449" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B449" s="15">
         <v>1</v>
       </c>
-      <c r="C449" s="3">
+      <c r="C449" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D449" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="450" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B450" s="15">
         <v>0</v>
       </c>
-      <c r="C450" s="3">
+      <c r="C450" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D450" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="451" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B451" s="15">
         <v>1</v>
       </c>
-      <c r="C451" s="3">
+      <c r="C451" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D451" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="452" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B452" s="15">
         <v>0</v>
       </c>
-      <c r="C452" s="3">
+      <c r="C452" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D452" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="453" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B453" s="15">
         <v>1</v>
       </c>
-      <c r="C453" s="3">
+      <c r="C453" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D453" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="454" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B454" s="15">
         <v>0</v>
       </c>
-      <c r="C454" s="3">
+      <c r="C454" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D454" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="455" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B455" s="15">
         <v>1</v>
       </c>
-      <c r="C455" s="3">
+      <c r="C455" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D455" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="456" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B456" s="15">
         <v>0</v>
       </c>
-      <c r="C456" s="3">
+      <c r="C456" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D456" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="457" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B457" s="15">
         <v>1</v>
       </c>
-      <c r="C457" s="3">
+      <c r="C457" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D457" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="458" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B458" s="15">
         <v>0</v>
       </c>
-      <c r="C458" s="3">
+      <c r="C458" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D458" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="459" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B459" s="15">
         <v>1</v>
       </c>
-      <c r="C459" s="3">
+      <c r="C459" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D459" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="460" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B460" s="15">
         <v>0</v>
       </c>
-      <c r="C460" s="3">
+      <c r="C460" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D460" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="461" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B461" s="15">
         <v>1</v>
       </c>
-      <c r="C461" s="3">
+      <c r="C461" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D461" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="462" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B462" s="15">
         <v>0</v>
       </c>
-      <c r="C462" s="3">
+      <c r="C462" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D462" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="463" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B463" s="15">
         <v>1</v>
       </c>
-      <c r="C463" s="3">
+      <c r="C463" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D463" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="464" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B464" s="15">
         <v>0</v>
       </c>
-      <c r="C464" s="3">
+      <c r="C464" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D464" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="465" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B465" s="15">
         <v>1</v>
       </c>
-      <c r="C465" s="3">
+      <c r="C465" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D465" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="466" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B466" s="15">
         <v>0</v>
       </c>
-      <c r="C466" s="3">
+      <c r="C466" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D466" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="467" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B467" s="15">
         <v>1</v>
       </c>
-      <c r="C467" s="3">
+      <c r="C467" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D467" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="468" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B468" s="15">
         <v>0</v>
       </c>
-      <c r="C468" s="3">
+      <c r="C468" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D468" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="469" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B469" s="15">
         <v>1</v>
       </c>
-      <c r="C469" s="3">
+      <c r="C469" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D469" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="470" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B470" s="15">
         <v>0</v>
       </c>
-      <c r="C470" s="3">
+      <c r="C470" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D470" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="471" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B471" s="15">
         <v>1</v>
       </c>
-      <c r="C471" s="3">
+      <c r="C471" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D471" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="472" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B472" s="15">
         <v>0</v>
       </c>
-      <c r="C472" s="3">
+      <c r="C472" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D472" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="473" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B473" s="15">
         <v>1</v>
       </c>
-      <c r="C473" s="3">
+      <c r="C473" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D473" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="474" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B474" s="15">
         <v>0</v>
       </c>
-      <c r="C474" s="3">
+      <c r="C474" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D474" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="475" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B475" s="15">
         <v>1</v>
       </c>
-      <c r="C475" s="3">
+      <c r="C475" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D475" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="476" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B476" s="15">
         <v>0</v>
       </c>
-      <c r="C476" s="3">
+      <c r="C476" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D476" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="477" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B477" s="15">
         <v>1</v>
       </c>
-      <c r="C477" s="3">
+      <c r="C477" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D477" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="478" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B478" s="15">
         <v>0</v>
       </c>
-      <c r="C478" s="3">
+      <c r="C478" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D478" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="479" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B479" s="15">
         <v>1</v>
       </c>
-      <c r="C479" s="3">
+      <c r="C479" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D479" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="480" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B480" s="15">
         <v>0</v>
       </c>
-      <c r="C480" s="3">
+      <c r="C480" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D480" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="481" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B481" s="15">
         <v>1</v>
       </c>
-      <c r="C481" s="3">
+      <c r="C481" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D481" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/dictionaries/1_0/1_0_non_repeated.xlsx
+++ b/R/data/dictionaries/1_0/1_0_non_repeated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/1_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD49309-810A-8947-B21C-7F3C47F37FBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB16D3F-5AF0-8F4E-A118-9E9F431A3F00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="465">
   <si>
     <t>name</t>
   </si>
@@ -1410,6 +1410,12 @@
   </si>
   <si>
     <t>isMissing</t>
+  </si>
+  <si>
+    <t>row_id</t>
+  </si>
+  <si>
+    <t>Unique identifer for the row in Opal</t>
   </si>
 </sst>
 </file>
@@ -1974,10 +1980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG110"/>
+  <dimension ref="A1:BG111"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A97" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2059,38 +2065,92 @@
       <c r="BG1"/>
     </row>
     <row r="2" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2"/>
+    </row>
+    <row r="3" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="E2"/>
-    </row>
-    <row r="3" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>393</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -2098,44 +2158,44 @@
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>386</v>
+      <c r="D4" s="4" t="s">
+        <v>393</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="E5"/>
-    </row>
-    <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
@@ -2144,13 +2204,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E7"/>
     </row>
     <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
@@ -2158,14 +2218,14 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>396</v>
+      <c r="D8" s="2" t="s">
+        <v>395</v>
       </c>
       <c r="E8"/>
     </row>
     <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
@@ -2174,13 +2234,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E9"/>
     </row>
     <row r="10" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
@@ -2189,13 +2249,13 @@
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E10"/>
     </row>
     <row r="11" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>3</v>
@@ -2204,223 +2264,223 @@
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E11"/>
     </row>
     <row r="12" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>400</v>
+        <v>4</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>399</v>
       </c>
       <c r="E12"/>
     </row>
     <row r="13" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E13"/>
     </row>
     <row r="14" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>402</v>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>401</v>
       </c>
       <c r="E14"/>
     </row>
     <row r="15" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E16"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E17"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E18"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E19"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E20"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E21"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>409</v>
       </c>
       <c r="E22"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>436</v>
+        <v>23</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="E23"/>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E24"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E25"/>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>3</v>
@@ -2429,13 +2489,13 @@
         <v>4</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E26"/>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>3</v>
@@ -2444,13 +2504,13 @@
         <v>4</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>329</v>
+        <v>439</v>
       </c>
       <c r="E27"/>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>3</v>
@@ -2459,13 +2519,13 @@
         <v>4</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>450</v>
+        <v>329</v>
       </c>
       <c r="E28"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>3</v>
@@ -2474,13 +2534,13 @@
         <v>4</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E29"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>3</v>
@@ -2489,13 +2549,13 @@
         <v>4</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E30"/>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>3</v>
@@ -2504,13 +2564,13 @@
         <v>4</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E31"/>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>3</v>
@@ -2519,13 +2579,13 @@
         <v>4</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E32"/>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>3</v>
@@ -2534,13 +2594,13 @@
         <v>4</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E33"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>3</v>
@@ -2549,13 +2609,13 @@
         <v>4</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E34"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>3</v>
@@ -2564,28 +2624,28 @@
         <v>4</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E35"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>444</v>
+      <c r="C36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="E36"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>3</v>
@@ -2594,28 +2654,28 @@
         <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E37"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E38"/>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>3</v>
@@ -2624,13 +2684,13 @@
         <v>4</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E39"/>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>3</v>
@@ -2639,13 +2699,13 @@
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E40"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>3</v>
@@ -2654,13 +2714,13 @@
         <v>4</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E41"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>3</v>
@@ -2669,28 +2729,28 @@
         <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="E42"/>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>434</v>
+        <v>17</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="E43"/>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>3</v>
@@ -2699,13 +2759,13 @@
         <v>4</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E44"/>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>3</v>
@@ -2714,13 +2774,13 @@
         <v>4</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E45"/>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>3</v>
@@ -2729,13 +2789,13 @@
         <v>4</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E46"/>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>3</v>
@@ -2744,13 +2804,13 @@
         <v>4</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>107</v>
+        <v>431</v>
       </c>
       <c r="E47"/>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>3</v>
@@ -2759,13 +2819,13 @@
         <v>4</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E48"/>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>3</v>
@@ -2774,13 +2834,13 @@
         <v>4</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E49"/>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>3</v>
@@ -2789,13 +2849,13 @@
         <v>4</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E50"/>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>3</v>
@@ -2804,13 +2864,13 @@
         <v>4</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E51"/>
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>3</v>
@@ -2819,13 +2879,13 @@
         <v>4</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E52"/>
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>3</v>
@@ -2834,118 +2894,118 @@
         <v>4</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E53"/>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="5" t="s">
+      <c r="B55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E54"/>
-    </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="5" t="s">
+      <c r="B56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="E55"/>
-    </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E56"/>
     </row>
     <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>430</v>
+        <v>116</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="E57"/>
     </row>
     <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>122</v>
+        <v>430</v>
       </c>
       <c r="E58"/>
     </row>
     <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="2" t="s">
+      <c r="B60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E59"/>
-    </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="E60"/>
     </row>
     <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>3</v>
@@ -2954,13 +3014,13 @@
         <v>4</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E61"/>
     </row>
     <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>3</v>
@@ -2968,14 +3028,14 @@
       <c r="C62" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>429</v>
+      <c r="D62" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="E62"/>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>3</v>
@@ -2984,13 +3044,13 @@
         <v>4</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E63"/>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>3</v>
@@ -2999,13 +3059,13 @@
         <v>4</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E64"/>
     </row>
     <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>3</v>
@@ -3014,13 +3074,13 @@
         <v>4</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>132</v>
+        <v>427</v>
       </c>
       <c r="E65"/>
     </row>
     <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>3</v>
@@ -3029,43 +3089,43 @@
         <v>4</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>426</v>
+        <v>132</v>
       </c>
       <c r="E66"/>
     </row>
     <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E67"/>
     </row>
     <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>140</v>
+        <v>12</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>425</v>
       </c>
       <c r="E68"/>
     </row>
     <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>3</v>
@@ -3073,74 +3133,74 @@
       <c r="C69" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>424</v>
+      <c r="D69" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="E69"/>
     </row>
     <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E70"/>
     </row>
     <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>139</v>
+        <v>12</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>421</v>
       </c>
       <c r="E71"/>
     </row>
     <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E72"/>
     </row>
     <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E73"/>
     </row>
     <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>3</v>
@@ -3149,43 +3209,43 @@
         <v>4</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E74"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E75"/>
     </row>
     <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E76"/>
     </row>
     <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>3</v>
@@ -3194,13 +3254,13 @@
         <v>4</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E77"/>
     </row>
     <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>3</v>
@@ -3209,13 +3269,13 @@
         <v>4</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E78"/>
     </row>
     <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>3</v>
@@ -3224,13 +3284,13 @@
         <v>4</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E79"/>
     </row>
     <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>3</v>
@@ -3239,13 +3299,13 @@
         <v>4</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E80"/>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>3</v>
@@ -3253,14 +3313,14 @@
       <c r="C81" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>162</v>
+      <c r="D81" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="E81"/>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>3</v>
@@ -3269,13 +3329,13 @@
         <v>4</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E82"/>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>3</v>
@@ -3283,14 +3343,14 @@
       <c r="C83" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>164</v>
+      <c r="D83" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="E83"/>
     </row>
     <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>3</v>
@@ -3299,13 +3359,13 @@
         <v>4</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E84"/>
     </row>
     <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>3</v>
@@ -3314,13 +3374,13 @@
         <v>4</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E85"/>
     </row>
     <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>3</v>
@@ -3329,43 +3389,43 @@
         <v>4</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E86"/>
     </row>
     <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E87"/>
+    </row>
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D87" s="2" t="s">
+      <c r="B88" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="E87"/>
-    </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="E88"/>
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>3</v>
@@ -3374,28 +3434,28 @@
         <v>4</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E89"/>
     </row>
     <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E90"/>
     </row>
     <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>3</v>
@@ -3404,13 +3464,13 @@
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E91"/>
     </row>
     <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>3</v>
@@ -3419,13 +3479,13 @@
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E92"/>
     </row>
     <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>3</v>
@@ -3434,103 +3494,103 @@
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E93"/>
     </row>
     <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E94"/>
+    </row>
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E94"/>
-    </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C95" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>178</v>
+      <c r="C95" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="E95"/>
     </row>
     <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>177</v>
+      <c r="A96" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E96"/>
+    </row>
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E96"/>
-    </row>
-    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
+      <c r="E97"/>
+    </row>
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D97" s="4" t="s">
+      <c r="B98" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>413</v>
-      </c>
-      <c r="E97"/>
-    </row>
-    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="E98"/>
     </row>
     <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E99"/>
     </row>
     <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>3</v>
@@ -3539,13 +3599,13 @@
         <v>4</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E100"/>
     </row>
     <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>3</v>
@@ -3554,13 +3614,13 @@
         <v>4</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E101"/>
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>3</v>
@@ -3569,13 +3629,13 @@
         <v>4</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E102"/>
     </row>
     <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>3</v>
@@ -3584,40 +3644,41 @@
         <v>4</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>192</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="E103"/>
     </row>
     <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>7</v>
+        <v>191</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>412</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>11</v>
@@ -3626,62 +3687,76 @@
         <v>7</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>11</v>
+        <v>69</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="10" t="s">
+    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="B110" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C110" s="11" t="s">
+      <c r="B111" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D110" s="12" t="s">
+      <c r="D111" s="12" t="s">
         <v>461</v>
       </c>
     </row>
@@ -3698,7 +3773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D472"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A442" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A274" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C472"/>
     </sheetView>
   </sheetViews>
